--- a/FuncSpec.xlsx
+++ b/FuncSpec.xlsx
@@ -10,24 +10,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment authorId="0" ref="E16">
-      <text>
-        <t xml:space="preserve">디스플레이에 스크린 터치기능이 없고 완제품의 디스플레이가 아주소형이라면 wifi 연결이 아닌 자체 lte만을 사용하도록 해야하는데.. ( 비밀번호 입력이 힘들기 때문에) 흠 어카지
-	-‍박정환(학부생-소프트웨어전공)</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="95">
   <si>
     <t>ver.</t>
   </si>
@@ -147,13 +131,15 @@
     <t>피보호자 삭제</t>
   </si>
   <si>
-    <t>보호자는 자신이 등록한 관리대상 목록을 웹에서 확인하고 일부 대상의 삭제를 원하는 경우 목록에서 해당 대상자만 선택해 관리 대상에서 삭제할 수 있다.</t>
+    <t>보호자는 자신이 등록한 관리대상 목록을 웹에서 확인하고,
+ 일부 대상의 삭제를 원하는 경우 목록에서 해당 대상자만 선택해 관리 대상에서 삭제할 수 있다.</t>
   </si>
   <si>
     <t>보호자 등록 요청 수락</t>
   </si>
   <si>
-    <t>보호자가 디바이스에 대한 등록을 요청한 경우 피보호자의 디바이스는 요청에 대한 푸시 알림을 받은 뒤 사용자의 의사를 묻는다. 사용자는 디바이스의 디스플레이와 방향버튼을 이용하여 의사결정을 한다.</t>
+    <t>보호자가 디바이스에 대한 등록을 요청한 경우 피보호자의 디바이스는 요청에 대한 푸시 알림을 받은 뒤 사용자의 의사를 묻는다.
+사용자는 디바이스의 디스플레이와 방향버튼을 이용하여 의사결정을 한다.</t>
   </si>
   <si>
     <t>조회기록 열람</t>
@@ -168,7 +154,8 @@
     <t>전원 On/Off</t>
   </si>
   <si>
-    <t>디바이스 별도의 버튼을 이용해 ON/OFF를 할 수 있도록한다. 사용자의 접근성을 고려하여 버튼을 위치하되 버튼을 잘못 누르는 실수등을 방지하기 위해 3~5초동안 버튼 클릭을 유지 해야만 기능이 작동한다.</t>
+    <t>디바이스 별도의 버튼을 이용해 ON/OFF를 할 수 있도록한다. 
+사용자의 접근성을 고려하여 버튼을 위치하되 버튼을 잘못 누르는 실수등을 방지하기 위해 3~5초동안 버튼 클릭을 유지 해야만 기능이 작동한다.</t>
   </si>
   <si>
     <t>상</t>
@@ -186,7 +173,11 @@
     <t>LTE 연결</t>
   </si>
   <si>
-    <t xml:space="preserve">LTE 모듈이 장착되어 있어 국내 3사 통신사에서 유심을 개통한뒤 USIM 슬롯에 꽂아 LTE 기능을 이용할 수 있다. 디스플레이 UI와 방향 버튼을 이용하여 통신모드를 ON/OFF 할 수 있다. </t>
+    <t xml:space="preserve">LTE 모듈이 장착되어 있어 국내 3사 통신사에서 유심을 개통한뒤 USIM 슬롯에 꽂아 LTE 기능을 이용할 수 있다. 
+디스플레이 UI와 방향 버튼을 이용하여 통신모드를 ON/OFF 할 수 있다. </t>
+  </si>
+  <si>
+    <t>피보호자, 보호자, 112센터</t>
   </si>
   <si>
     <t>피보호자의 SOS요청</t>
@@ -214,10 +205,40 @@
 로컬 디바이스의 디스플레이에는 요청 수락과 거절을 ui로 나타내고 버튼 클릭을 통해 의사결정을 할 수 있게한다</t>
   </si>
   <si>
-    <t>피보호자의 실시간 정보 송신</t>
-  </si>
-  <si>
-    <t>피보호자의 위치, 음성, 영상이 담긴 실시간 정보를 송신함</t>
+    <t>14-1</t>
+  </si>
+  <si>
+    <t>피보호자의 비디오 정보 송신</t>
+  </si>
+  <si>
+    <t>피보호자의 영상 정보를 실시간으로 전달함.</t>
+  </si>
+  <si>
+    <t>14-2</t>
+  </si>
+  <si>
+    <t>피보호자의 오디오 정보 송신</t>
+  </si>
+  <si>
+    <t>피보호자의 음성 정보를 실시간으로 전달함.</t>
+  </si>
+  <si>
+    <t>14-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">피보호자가 전달한 비디오와 오디오 싱크 </t>
+  </si>
+  <si>
+    <t>피보호자가 전달한 영상정보와 음성정보의 싱크를 맞춘다.</t>
+  </si>
+  <si>
+    <t>14-4</t>
+  </si>
+  <si>
+    <t>피보호자의 gps 정보 송신</t>
+  </si>
+  <si>
+    <t>피보호자의 위치 정보를 실시간으로 전달함.</t>
   </si>
   <si>
     <t xml:space="preserve">실시간 정보 요청 자동 수락 </t>
@@ -262,7 +283,7 @@
     <t>SOS요청 수신</t>
   </si>
   <si>
-    <t>접수자가 전송한 위치 및 영상데이터 및 접수자의 정보가 수신</t>
+    <t>접수자가 전송한 위치 및 영상데이터 및 접수자의 정보를 수신</t>
   </si>
   <si>
     <t xml:space="preserve">신고 접수 목록 조회 </t>
@@ -296,16 +317,14 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <color theme="1"/>
-      <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -337,9 +356,24 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -347,25 +381,25 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -584,12 +618,12 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="1.57"/>
-    <col customWidth="1" min="2" max="2" width="4.57"/>
-    <col customWidth="1" min="3" max="3" width="18.71"/>
+    <col customWidth="1" min="2" max="2" width="5.0"/>
+    <col customWidth="1" min="3" max="3" width="24.29"/>
     <col customWidth="1" min="4" max="4" width="11.29"/>
     <col customWidth="1" min="5" max="5" width="29.43"/>
-    <col customWidth="1" min="6" max="6" width="125.0"/>
-    <col customWidth="1" hidden="1" min="7" max="7" width="16.43"/>
+    <col customWidth="1" min="6" max="6" width="156.14"/>
+    <col customWidth="1" min="7" max="7" width="16.43"/>
     <col customWidth="1" min="8" max="8" width="11.57"/>
     <col customWidth="1" min="9" max="9" width="8.71"/>
     <col customWidth="1" min="10" max="10" width="6.86"/>
@@ -598,3653 +632,4693 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="4" t="s">
+      <c r="C2" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="2"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7"/>
     </row>
     <row r="3">
       <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="2"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7"/>
     </row>
     <row r="4">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5">
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="7">
         <v>44411.0</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6">
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="7">
         <v>44411.0</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7">
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="7">
         <v>44416.0</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8">
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="7">
         <v>44416.0</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="4">
+      <c r="B9" s="1">
         <v>1.0</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
     </row>
     <row r="10">
-      <c r="B10" s="4">
+      <c r="B10" s="1">
         <v>2.0</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
     </row>
     <row r="11">
-      <c r="B11" s="4">
+      <c r="B11" s="1">
         <v>3.0</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="7">
         <v>44411.0</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="4">
+      <c r="B12" s="1">
         <v>4.0</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="7">
         <v>44411.0</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="4">
+      <c r="B13" s="1">
         <v>5.0</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="7">
         <v>44411.0</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="4">
+      <c r="B14" s="1">
         <v>6.0</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="7">
         <v>44411.0</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K14" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="4">
+      <c r="B15" s="1">
         <v>7.0</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="7">
         <v>44411.0</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="4">
+      <c r="B16" s="1">
         <v>8.0</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="7">
         <v>44411.0</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="4">
+      <c r="B17" s="1">
         <v>9.0</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="7">
         <v>44411.0</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="4">
+      <c r="B18" s="1">
         <v>10.0</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="C18" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="E18" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H18" s="2">
+      <c r="F18" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="7">
         <v>44411.0</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="4">
+      <c r="B19" s="1">
         <v>11.0</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="1" t="s">
+      <c r="C19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="H19" s="2">
+      <c r="F19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="7">
         <v>44411.0</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J19" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="4">
+      <c r="B20" s="1">
         <v>12.0</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F20" s="1" t="s">
+      <c r="E20" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H20" s="2">
+      <c r="F20" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H20" s="7">
         <v>44411.0</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J20" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="K20" s="1"/>
+      <c r="K20" s="6"/>
     </row>
     <row r="21">
-      <c r="B21" s="4">
+      <c r="B21" s="1">
         <v>13.0</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="1" t="s">
+      <c r="E21" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H21" s="2">
+      <c r="F21" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="7">
         <v>44414.0</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J21" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="K21" s="1"/>
+      <c r="K21" s="6"/>
     </row>
     <row r="22">
-      <c r="B22" s="4">
-        <v>14.0</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="B22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H22" s="2">
+      <c r="E22" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" s="7">
         <v>44411.0</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I22" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J22" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K22" s="1"/>
+      <c r="K22" s="6"/>
     </row>
     <row r="23">
-      <c r="B23" s="4">
+      <c r="B23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25">
+      <c r="B25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="1">
         <v>15.0</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C26" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H23" s="2">
+      <c r="E26" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H26" s="7">
         <v>44414.0</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I26" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J26" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="4">
+      <c r="K26" s="6"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="1">
         <v>16.0</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C27" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H24" s="2">
+      <c r="E27" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H27" s="7">
         <v>44414.0</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I27" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="J27" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K24" s="1"/>
-    </row>
-    <row r="25">
-      <c r="B25" s="4">
+      <c r="K27" s="6"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="1">
         <v>17.0</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C28" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H25" s="2">
+      <c r="E28" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H28" s="7">
         <v>44411.0</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I28" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="J28" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="K25" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" s="4">
+      <c r="K28" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="N28" s="6"/>
+    </row>
+    <row r="29">
+      <c r="B29" s="1">
         <v>18.0</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C29" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H26" s="2">
+      <c r="E29" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H29" s="7">
         <v>44414.0</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I29" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="J29" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K26" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" s="4">
+      <c r="K29" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="1">
         <v>19.0</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C30" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="H27" s="2">
+      <c r="E30" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H30" s="7">
         <v>44411.0</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="I30" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="J30" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28">
-      <c r="B28" s="4">
+    <row r="31">
+      <c r="B31" s="1">
         <v>20.0</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H28" s="2">
+      <c r="C31" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H31" s="7">
         <v>44411.0</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I31" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="J31" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29">
-      <c r="B29" s="4">
+    <row r="32">
+      <c r="B32" s="1">
         <v>21.0</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H29" s="2">
+      <c r="C32" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H32" s="7">
         <v>44411.0</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I32" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="J32" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="30">
-      <c r="B30" s="4">
+    <row r="33">
+      <c r="B33" s="1">
         <v>22.0</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H30" s="2">
+      <c r="C33" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H33" s="7">
         <v>44411.0</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="I33" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="J33" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="31">
-      <c r="B31" s="4">
+    <row r="34">
+      <c r="B34" s="1">
         <v>23.0</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C34" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H31" s="2">
+      <c r="E34" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H34" s="7">
         <v>44416.0</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I34" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="J34" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33">
-      <c r="H33" s="9"/>
-    </row>
-    <row r="34">
-      <c r="H34" s="9"/>
-    </row>
     <row r="35">
-      <c r="H35" s="9"/>
+      <c r="B35" s="11"/>
     </row>
     <row r="36">
-      <c r="H36" s="9"/>
+      <c r="B36" s="11"/>
+      <c r="H36" s="14"/>
     </row>
     <row r="37">
-      <c r="H37" s="9"/>
+      <c r="B37" s="11"/>
+      <c r="H37" s="14"/>
     </row>
     <row r="38">
-      <c r="H38" s="9"/>
+      <c r="B38" s="11"/>
+      <c r="H38" s="14"/>
     </row>
     <row r="39">
-      <c r="H39" s="9"/>
+      <c r="B39" s="11"/>
+      <c r="H39" s="14"/>
     </row>
     <row r="40">
-      <c r="H40" s="9"/>
+      <c r="B40" s="11"/>
+      <c r="H40" s="14"/>
     </row>
     <row r="41">
-      <c r="H41" s="9"/>
+      <c r="B41" s="11"/>
+      <c r="H41" s="14"/>
     </row>
     <row r="42">
-      <c r="H42" s="9"/>
+      <c r="B42" s="11"/>
+      <c r="H42" s="14"/>
     </row>
     <row r="43">
-      <c r="H43" s="9"/>
+      <c r="B43" s="11"/>
+      <c r="H43" s="14"/>
     </row>
     <row r="44">
-      <c r="H44" s="9"/>
+      <c r="B44" s="11"/>
+      <c r="H44" s="14"/>
     </row>
     <row r="45">
-      <c r="H45" s="9"/>
+      <c r="B45" s="11"/>
+      <c r="H45" s="14"/>
     </row>
     <row r="46">
-      <c r="H46" s="9"/>
+      <c r="B46" s="11"/>
+      <c r="H46" s="14"/>
     </row>
     <row r="47">
-      <c r="H47" s="9"/>
+      <c r="B47" s="11"/>
+      <c r="H47" s="14"/>
     </row>
     <row r="48">
-      <c r="H48" s="9"/>
+      <c r="B48" s="11"/>
+      <c r="H48" s="14"/>
     </row>
     <row r="49">
-      <c r="H49" s="9"/>
+      <c r="B49" s="11"/>
+      <c r="H49" s="14"/>
     </row>
     <row r="50">
-      <c r="H50" s="9"/>
+      <c r="B50" s="11"/>
+      <c r="H50" s="14"/>
     </row>
     <row r="51">
-      <c r="H51" s="9"/>
+      <c r="B51" s="11"/>
+      <c r="H51" s="14"/>
     </row>
     <row r="52">
-      <c r="H52" s="9"/>
+      <c r="B52" s="11"/>
+      <c r="H52" s="14"/>
     </row>
     <row r="53">
-      <c r="H53" s="9"/>
+      <c r="B53" s="11"/>
+      <c r="H53" s="14"/>
     </row>
     <row r="54">
-      <c r="H54" s="9"/>
+      <c r="B54" s="11"/>
+      <c r="H54" s="14"/>
     </row>
     <row r="55">
-      <c r="H55" s="9"/>
+      <c r="B55" s="11"/>
+      <c r="H55" s="14"/>
     </row>
     <row r="56">
-      <c r="H56" s="9"/>
+      <c r="B56" s="11"/>
+      <c r="H56" s="14"/>
     </row>
     <row r="57">
-      <c r="H57" s="9"/>
+      <c r="B57" s="11"/>
+      <c r="H57" s="14"/>
     </row>
     <row r="58">
-      <c r="H58" s="9"/>
+      <c r="B58" s="11"/>
+      <c r="H58" s="14"/>
     </row>
     <row r="59">
-      <c r="H59" s="9"/>
+      <c r="B59" s="11"/>
+      <c r="H59" s="14"/>
     </row>
     <row r="60">
-      <c r="H60" s="9"/>
+      <c r="B60" s="11"/>
+      <c r="H60" s="14"/>
     </row>
     <row r="61">
-      <c r="H61" s="9"/>
+      <c r="B61" s="11"/>
+      <c r="H61" s="14"/>
     </row>
     <row r="62">
-      <c r="H62" s="9"/>
+      <c r="B62" s="11"/>
+      <c r="H62" s="14"/>
     </row>
     <row r="63">
-      <c r="H63" s="9"/>
+      <c r="B63" s="11"/>
+      <c r="H63" s="14"/>
     </row>
     <row r="64">
-      <c r="H64" s="9"/>
+      <c r="B64" s="11"/>
+      <c r="H64" s="14"/>
     </row>
     <row r="65">
-      <c r="H65" s="9"/>
+      <c r="B65" s="11"/>
+      <c r="H65" s="14"/>
     </row>
     <row r="66">
-      <c r="H66" s="9"/>
+      <c r="B66" s="11"/>
+      <c r="H66" s="14"/>
     </row>
     <row r="67">
-      <c r="H67" s="9"/>
+      <c r="B67" s="11"/>
+      <c r="H67" s="14"/>
     </row>
     <row r="68">
-      <c r="H68" s="9"/>
+      <c r="B68" s="11"/>
+      <c r="H68" s="14"/>
     </row>
     <row r="69">
-      <c r="H69" s="9"/>
+      <c r="B69" s="11"/>
+      <c r="H69" s="14"/>
     </row>
     <row r="70">
-      <c r="H70" s="9"/>
+      <c r="B70" s="11"/>
+      <c r="H70" s="14"/>
     </row>
     <row r="71">
-      <c r="H71" s="9"/>
+      <c r="B71" s="11"/>
+      <c r="H71" s="14"/>
     </row>
     <row r="72">
-      <c r="H72" s="9"/>
+      <c r="B72" s="11"/>
+      <c r="H72" s="14"/>
     </row>
     <row r="73">
-      <c r="H73" s="9"/>
+      <c r="B73" s="11"/>
+      <c r="H73" s="14"/>
     </row>
     <row r="74">
-      <c r="H74" s="9"/>
+      <c r="B74" s="11"/>
+      <c r="H74" s="14"/>
     </row>
     <row r="75">
-      <c r="H75" s="9"/>
+      <c r="B75" s="11"/>
+      <c r="H75" s="14"/>
     </row>
     <row r="76">
-      <c r="H76" s="9"/>
+      <c r="B76" s="11"/>
+      <c r="H76" s="14"/>
     </row>
     <row r="77">
-      <c r="H77" s="9"/>
+      <c r="B77" s="11"/>
+      <c r="H77" s="14"/>
     </row>
     <row r="78">
-      <c r="H78" s="9"/>
+      <c r="B78" s="11"/>
+      <c r="H78" s="14"/>
     </row>
     <row r="79">
-      <c r="H79" s="9"/>
+      <c r="B79" s="11"/>
+      <c r="H79" s="14"/>
     </row>
     <row r="80">
-      <c r="H80" s="9"/>
+      <c r="B80" s="11"/>
+      <c r="H80" s="14"/>
     </row>
     <row r="81">
-      <c r="H81" s="9"/>
+      <c r="B81" s="11"/>
+      <c r="H81" s="14"/>
     </row>
     <row r="82">
-      <c r="H82" s="9"/>
+      <c r="B82" s="11"/>
+      <c r="H82" s="14"/>
     </row>
     <row r="83">
-      <c r="H83" s="9"/>
+      <c r="B83" s="11"/>
+      <c r="H83" s="14"/>
     </row>
     <row r="84">
-      <c r="H84" s="9"/>
+      <c r="B84" s="11"/>
+      <c r="H84" s="14"/>
     </row>
     <row r="85">
-      <c r="H85" s="9"/>
+      <c r="B85" s="11"/>
+      <c r="H85" s="14"/>
     </row>
     <row r="86">
-      <c r="H86" s="9"/>
+      <c r="B86" s="11"/>
+      <c r="H86" s="14"/>
     </row>
     <row r="87">
-      <c r="H87" s="9"/>
+      <c r="B87" s="11"/>
+      <c r="H87" s="14"/>
     </row>
     <row r="88">
-      <c r="H88" s="9"/>
+      <c r="B88" s="11"/>
+      <c r="H88" s="14"/>
     </row>
     <row r="89">
-      <c r="H89" s="9"/>
+      <c r="B89" s="11"/>
+      <c r="H89" s="14"/>
     </row>
     <row r="90">
-      <c r="H90" s="9"/>
+      <c r="B90" s="11"/>
+      <c r="H90" s="14"/>
     </row>
     <row r="91">
-      <c r="H91" s="9"/>
+      <c r="B91" s="11"/>
+      <c r="H91" s="14"/>
     </row>
     <row r="92">
-      <c r="H92" s="9"/>
+      <c r="B92" s="11"/>
+      <c r="H92" s="14"/>
     </row>
     <row r="93">
-      <c r="H93" s="9"/>
+      <c r="B93" s="11"/>
+      <c r="H93" s="14"/>
     </row>
     <row r="94">
-      <c r="H94" s="9"/>
+      <c r="B94" s="11"/>
+      <c r="H94" s="14"/>
     </row>
     <row r="95">
-      <c r="H95" s="9"/>
+      <c r="B95" s="11"/>
+      <c r="H95" s="14"/>
     </row>
     <row r="96">
-      <c r="H96" s="9"/>
+      <c r="B96" s="11"/>
+      <c r="H96" s="14"/>
     </row>
     <row r="97">
-      <c r="H97" s="9"/>
+      <c r="B97" s="11"/>
+      <c r="H97" s="14"/>
     </row>
     <row r="98">
-      <c r="H98" s="9"/>
+      <c r="B98" s="11"/>
+      <c r="H98" s="14"/>
     </row>
     <row r="99">
-      <c r="H99" s="9"/>
+      <c r="B99" s="11"/>
+      <c r="H99" s="14"/>
     </row>
     <row r="100">
-      <c r="H100" s="9"/>
+      <c r="B100" s="11"/>
+      <c r="H100" s="14"/>
     </row>
     <row r="101">
-      <c r="H101" s="9"/>
+      <c r="B101" s="11"/>
+      <c r="H101" s="14"/>
     </row>
     <row r="102">
-      <c r="H102" s="9"/>
+      <c r="B102" s="11"/>
+      <c r="H102" s="14"/>
     </row>
     <row r="103">
-      <c r="H103" s="9"/>
+      <c r="B103" s="11"/>
+      <c r="H103" s="14"/>
     </row>
     <row r="104">
-      <c r="H104" s="9"/>
+      <c r="B104" s="11"/>
+      <c r="H104" s="14"/>
     </row>
     <row r="105">
-      <c r="H105" s="9"/>
+      <c r="B105" s="11"/>
+      <c r="H105" s="14"/>
     </row>
     <row r="106">
-      <c r="H106" s="9"/>
+      <c r="B106" s="11"/>
+      <c r="H106" s="14"/>
     </row>
     <row r="107">
-      <c r="H107" s="9"/>
+      <c r="B107" s="11"/>
+      <c r="H107" s="14"/>
     </row>
     <row r="108">
-      <c r="H108" s="9"/>
+      <c r="B108" s="11"/>
+      <c r="H108" s="14"/>
     </row>
     <row r="109">
-      <c r="H109" s="9"/>
+      <c r="B109" s="11"/>
+      <c r="H109" s="14"/>
     </row>
     <row r="110">
-      <c r="H110" s="9"/>
+      <c r="B110" s="11"/>
+      <c r="H110" s="14"/>
     </row>
     <row r="111">
-      <c r="H111" s="9"/>
+      <c r="B111" s="11"/>
+      <c r="H111" s="14"/>
     </row>
     <row r="112">
-      <c r="H112" s="9"/>
+      <c r="B112" s="11"/>
+      <c r="H112" s="14"/>
     </row>
     <row r="113">
-      <c r="H113" s="9"/>
+      <c r="B113" s="11"/>
+      <c r="H113" s="14"/>
     </row>
     <row r="114">
-      <c r="H114" s="9"/>
+      <c r="B114" s="11"/>
+      <c r="H114" s="14"/>
     </row>
     <row r="115">
-      <c r="H115" s="9"/>
+      <c r="B115" s="11"/>
+      <c r="H115" s="14"/>
     </row>
     <row r="116">
-      <c r="H116" s="9"/>
+      <c r="B116" s="11"/>
+      <c r="H116" s="14"/>
     </row>
     <row r="117">
-      <c r="H117" s="9"/>
+      <c r="B117" s="11"/>
+      <c r="H117" s="14"/>
     </row>
     <row r="118">
-      <c r="H118" s="9"/>
+      <c r="B118" s="11"/>
+      <c r="H118" s="14"/>
     </row>
     <row r="119">
-      <c r="H119" s="9"/>
+      <c r="B119" s="11"/>
+      <c r="H119" s="14"/>
     </row>
     <row r="120">
-      <c r="H120" s="9"/>
+      <c r="B120" s="11"/>
+      <c r="H120" s="14"/>
     </row>
     <row r="121">
-      <c r="H121" s="9"/>
+      <c r="B121" s="11"/>
+      <c r="H121" s="14"/>
     </row>
     <row r="122">
-      <c r="H122" s="9"/>
+      <c r="B122" s="11"/>
+      <c r="H122" s="14"/>
     </row>
     <row r="123">
-      <c r="H123" s="9"/>
+      <c r="B123" s="11"/>
+      <c r="H123" s="14"/>
     </row>
     <row r="124">
-      <c r="H124" s="9"/>
+      <c r="B124" s="11"/>
+      <c r="H124" s="14"/>
     </row>
     <row r="125">
-      <c r="H125" s="9"/>
+      <c r="B125" s="11"/>
+      <c r="H125" s="14"/>
     </row>
     <row r="126">
-      <c r="H126" s="9"/>
+      <c r="B126" s="11"/>
+      <c r="H126" s="14"/>
     </row>
     <row r="127">
-      <c r="H127" s="9"/>
+      <c r="B127" s="11"/>
+      <c r="H127" s="14"/>
     </row>
     <row r="128">
-      <c r="H128" s="9"/>
+      <c r="B128" s="11"/>
+      <c r="H128" s="14"/>
     </row>
     <row r="129">
-      <c r="H129" s="9"/>
+      <c r="B129" s="11"/>
+      <c r="H129" s="14"/>
     </row>
     <row r="130">
-      <c r="H130" s="9"/>
+      <c r="B130" s="11"/>
+      <c r="H130" s="14"/>
     </row>
     <row r="131">
-      <c r="H131" s="9"/>
+      <c r="B131" s="11"/>
+      <c r="H131" s="14"/>
     </row>
     <row r="132">
-      <c r="H132" s="9"/>
+      <c r="B132" s="11"/>
+      <c r="H132" s="14"/>
     </row>
     <row r="133">
-      <c r="H133" s="9"/>
+      <c r="B133" s="11"/>
+      <c r="H133" s="14"/>
     </row>
     <row r="134">
-      <c r="H134" s="9"/>
+      <c r="B134" s="11"/>
+      <c r="H134" s="14"/>
     </row>
     <row r="135">
-      <c r="H135" s="9"/>
+      <c r="B135" s="11"/>
+      <c r="H135" s="14"/>
     </row>
     <row r="136">
-      <c r="H136" s="9"/>
+      <c r="B136" s="11"/>
+      <c r="H136" s="14"/>
     </row>
     <row r="137">
-      <c r="H137" s="9"/>
+      <c r="B137" s="11"/>
+      <c r="H137" s="14"/>
     </row>
     <row r="138">
-      <c r="H138" s="9"/>
+      <c r="B138" s="11"/>
+      <c r="H138" s="14"/>
     </row>
     <row r="139">
-      <c r="H139" s="9"/>
+      <c r="B139" s="11"/>
+      <c r="H139" s="14"/>
     </row>
     <row r="140">
-      <c r="H140" s="9"/>
+      <c r="B140" s="11"/>
+      <c r="H140" s="14"/>
     </row>
     <row r="141">
-      <c r="H141" s="9"/>
+      <c r="B141" s="11"/>
+      <c r="H141" s="14"/>
     </row>
     <row r="142">
-      <c r="H142" s="9"/>
+      <c r="B142" s="11"/>
+      <c r="H142" s="14"/>
     </row>
     <row r="143">
-      <c r="H143" s="9"/>
+      <c r="B143" s="11"/>
+      <c r="H143" s="14"/>
     </row>
     <row r="144">
-      <c r="H144" s="9"/>
+      <c r="B144" s="11"/>
+      <c r="H144" s="14"/>
     </row>
     <row r="145">
-      <c r="H145" s="9"/>
+      <c r="B145" s="11"/>
+      <c r="H145" s="14"/>
     </row>
     <row r="146">
-      <c r="H146" s="9"/>
+      <c r="B146" s="11"/>
+      <c r="H146" s="14"/>
     </row>
     <row r="147">
-      <c r="H147" s="9"/>
+      <c r="B147" s="11"/>
+      <c r="H147" s="14"/>
     </row>
     <row r="148">
-      <c r="H148" s="9"/>
+      <c r="B148" s="11"/>
+      <c r="H148" s="14"/>
     </row>
     <row r="149">
-      <c r="H149" s="9"/>
+      <c r="B149" s="11"/>
+      <c r="H149" s="14"/>
     </row>
     <row r="150">
-      <c r="H150" s="9"/>
+      <c r="B150" s="11"/>
+      <c r="H150" s="14"/>
     </row>
     <row r="151">
-      <c r="H151" s="9"/>
+      <c r="B151" s="11"/>
+      <c r="H151" s="14"/>
     </row>
     <row r="152">
-      <c r="H152" s="9"/>
+      <c r="B152" s="11"/>
+      <c r="H152" s="14"/>
     </row>
     <row r="153">
-      <c r="H153" s="9"/>
+      <c r="B153" s="11"/>
+      <c r="H153" s="14"/>
     </row>
     <row r="154">
-      <c r="H154" s="9"/>
+      <c r="B154" s="11"/>
+      <c r="H154" s="14"/>
     </row>
     <row r="155">
-      <c r="H155" s="9"/>
+      <c r="B155" s="11"/>
+      <c r="H155" s="14"/>
     </row>
     <row r="156">
-      <c r="H156" s="9"/>
+      <c r="B156" s="11"/>
+      <c r="H156" s="14"/>
     </row>
     <row r="157">
-      <c r="H157" s="9"/>
+      <c r="B157" s="11"/>
+      <c r="H157" s="14"/>
     </row>
     <row r="158">
-      <c r="H158" s="9"/>
+      <c r="B158" s="11"/>
+      <c r="H158" s="14"/>
     </row>
     <row r="159">
-      <c r="H159" s="9"/>
+      <c r="B159" s="11"/>
+      <c r="H159" s="14"/>
     </row>
     <row r="160">
-      <c r="H160" s="9"/>
+      <c r="B160" s="11"/>
+      <c r="H160" s="14"/>
     </row>
     <row r="161">
-      <c r="H161" s="9"/>
+      <c r="B161" s="11"/>
+      <c r="H161" s="14"/>
     </row>
     <row r="162">
-      <c r="H162" s="9"/>
+      <c r="B162" s="11"/>
+      <c r="H162" s="14"/>
     </row>
     <row r="163">
-      <c r="H163" s="9"/>
+      <c r="B163" s="11"/>
+      <c r="H163" s="14"/>
     </row>
     <row r="164">
-      <c r="H164" s="9"/>
+      <c r="B164" s="11"/>
+      <c r="H164" s="14"/>
     </row>
     <row r="165">
-      <c r="H165" s="9"/>
+      <c r="B165" s="11"/>
+      <c r="H165" s="14"/>
     </row>
     <row r="166">
-      <c r="H166" s="9"/>
+      <c r="B166" s="11"/>
+      <c r="H166" s="14"/>
     </row>
     <row r="167">
-      <c r="H167" s="9"/>
+      <c r="B167" s="11"/>
+      <c r="H167" s="14"/>
     </row>
     <row r="168">
-      <c r="H168" s="9"/>
+      <c r="B168" s="11"/>
+      <c r="H168" s="14"/>
     </row>
     <row r="169">
-      <c r="H169" s="9"/>
+      <c r="B169" s="11"/>
+      <c r="H169" s="14"/>
     </row>
     <row r="170">
-      <c r="H170" s="9"/>
+      <c r="B170" s="11"/>
+      <c r="H170" s="14"/>
     </row>
     <row r="171">
-      <c r="H171" s="9"/>
+      <c r="B171" s="11"/>
+      <c r="H171" s="14"/>
     </row>
     <row r="172">
-      <c r="H172" s="9"/>
+      <c r="B172" s="11"/>
+      <c r="H172" s="14"/>
     </row>
     <row r="173">
-      <c r="H173" s="9"/>
+      <c r="B173" s="11"/>
+      <c r="H173" s="14"/>
     </row>
     <row r="174">
-      <c r="H174" s="9"/>
+      <c r="B174" s="11"/>
+      <c r="H174" s="14"/>
     </row>
     <row r="175">
-      <c r="H175" s="9"/>
+      <c r="B175" s="11"/>
+      <c r="H175" s="14"/>
     </row>
     <row r="176">
-      <c r="H176" s="9"/>
+      <c r="B176" s="11"/>
+      <c r="H176" s="14"/>
     </row>
     <row r="177">
-      <c r="H177" s="9"/>
+      <c r="B177" s="11"/>
+      <c r="H177" s="14"/>
     </row>
     <row r="178">
-      <c r="H178" s="9"/>
+      <c r="B178" s="11"/>
+      <c r="H178" s="14"/>
     </row>
     <row r="179">
-      <c r="H179" s="9"/>
+      <c r="B179" s="11"/>
+      <c r="H179" s="14"/>
     </row>
     <row r="180">
-      <c r="H180" s="9"/>
+      <c r="B180" s="11"/>
+      <c r="H180" s="14"/>
     </row>
     <row r="181">
-      <c r="H181" s="9"/>
+      <c r="B181" s="11"/>
+      <c r="H181" s="14"/>
     </row>
     <row r="182">
-      <c r="H182" s="9"/>
+      <c r="B182" s="11"/>
+      <c r="H182" s="14"/>
     </row>
     <row r="183">
-      <c r="H183" s="9"/>
+      <c r="B183" s="11"/>
+      <c r="H183" s="14"/>
     </row>
     <row r="184">
-      <c r="H184" s="9"/>
+      <c r="B184" s="11"/>
+      <c r="H184" s="14"/>
     </row>
     <row r="185">
-      <c r="H185" s="9"/>
+      <c r="B185" s="11"/>
+      <c r="H185" s="14"/>
     </row>
     <row r="186">
-      <c r="H186" s="9"/>
+      <c r="B186" s="11"/>
+      <c r="H186" s="14"/>
     </row>
     <row r="187">
-      <c r="H187" s="9"/>
+      <c r="B187" s="11"/>
+      <c r="H187" s="14"/>
     </row>
     <row r="188">
-      <c r="H188" s="9"/>
+      <c r="B188" s="11"/>
+      <c r="H188" s="14"/>
     </row>
     <row r="189">
-      <c r="H189" s="9"/>
+      <c r="B189" s="11"/>
+      <c r="H189" s="14"/>
     </row>
     <row r="190">
-      <c r="H190" s="9"/>
+      <c r="B190" s="11"/>
+      <c r="H190" s="14"/>
     </row>
     <row r="191">
-      <c r="H191" s="9"/>
+      <c r="B191" s="11"/>
+      <c r="H191" s="14"/>
     </row>
     <row r="192">
-      <c r="H192" s="9"/>
+      <c r="B192" s="11"/>
+      <c r="H192" s="14"/>
     </row>
     <row r="193">
-      <c r="H193" s="9"/>
+      <c r="B193" s="11"/>
+      <c r="H193" s="14"/>
     </row>
     <row r="194">
-      <c r="H194" s="9"/>
+      <c r="B194" s="11"/>
+      <c r="H194" s="14"/>
     </row>
     <row r="195">
-      <c r="H195" s="9"/>
+      <c r="B195" s="11"/>
+      <c r="H195" s="14"/>
     </row>
     <row r="196">
-      <c r="H196" s="9"/>
+      <c r="B196" s="11"/>
+      <c r="H196" s="14"/>
     </row>
     <row r="197">
-      <c r="H197" s="9"/>
+      <c r="B197" s="11"/>
+      <c r="H197" s="14"/>
     </row>
     <row r="198">
-      <c r="H198" s="9"/>
+      <c r="B198" s="11"/>
+      <c r="H198" s="14"/>
     </row>
     <row r="199">
-      <c r="H199" s="9"/>
+      <c r="B199" s="11"/>
+      <c r="H199" s="14"/>
     </row>
     <row r="200">
-      <c r="H200" s="9"/>
+      <c r="B200" s="11"/>
+      <c r="H200" s="14"/>
     </row>
     <row r="201">
-      <c r="H201" s="9"/>
+      <c r="B201" s="11"/>
+      <c r="H201" s="14"/>
     </row>
     <row r="202">
-      <c r="H202" s="9"/>
+      <c r="B202" s="11"/>
+      <c r="H202" s="14"/>
     </row>
     <row r="203">
-      <c r="H203" s="9"/>
+      <c r="B203" s="11"/>
+      <c r="H203" s="14"/>
     </row>
     <row r="204">
-      <c r="H204" s="9"/>
+      <c r="B204" s="11"/>
+      <c r="H204" s="14"/>
     </row>
     <row r="205">
-      <c r="H205" s="9"/>
+      <c r="B205" s="11"/>
+      <c r="H205" s="14"/>
     </row>
     <row r="206">
-      <c r="H206" s="9"/>
+      <c r="B206" s="11"/>
+      <c r="H206" s="14"/>
     </row>
     <row r="207">
-      <c r="H207" s="9"/>
+      <c r="B207" s="11"/>
+      <c r="H207" s="14"/>
     </row>
     <row r="208">
-      <c r="H208" s="9"/>
+      <c r="B208" s="11"/>
+      <c r="H208" s="14"/>
     </row>
     <row r="209">
-      <c r="H209" s="9"/>
+      <c r="B209" s="11"/>
+      <c r="H209" s="14"/>
     </row>
     <row r="210">
-      <c r="H210" s="9"/>
+      <c r="B210" s="11"/>
+      <c r="H210" s="14"/>
     </row>
     <row r="211">
-      <c r="H211" s="9"/>
+      <c r="B211" s="11"/>
+      <c r="H211" s="14"/>
     </row>
     <row r="212">
-      <c r="H212" s="9"/>
+      <c r="B212" s="11"/>
+      <c r="H212" s="14"/>
     </row>
     <row r="213">
-      <c r="H213" s="9"/>
+      <c r="B213" s="11"/>
+      <c r="H213" s="14"/>
     </row>
     <row r="214">
-      <c r="H214" s="9"/>
+      <c r="B214" s="11"/>
+      <c r="H214" s="14"/>
     </row>
     <row r="215">
-      <c r="H215" s="9"/>
+      <c r="B215" s="11"/>
+      <c r="H215" s="14"/>
     </row>
     <row r="216">
-      <c r="H216" s="9"/>
+      <c r="B216" s="11"/>
+      <c r="H216" s="14"/>
     </row>
     <row r="217">
-      <c r="H217" s="9"/>
+      <c r="B217" s="11"/>
+      <c r="H217" s="14"/>
     </row>
     <row r="218">
-      <c r="H218" s="9"/>
+      <c r="B218" s="11"/>
+      <c r="H218" s="14"/>
     </row>
     <row r="219">
-      <c r="H219" s="9"/>
+      <c r="B219" s="11"/>
+      <c r="H219" s="14"/>
     </row>
     <row r="220">
-      <c r="H220" s="9"/>
+      <c r="B220" s="11"/>
+      <c r="H220" s="14"/>
     </row>
     <row r="221">
-      <c r="H221" s="9"/>
+      <c r="B221" s="11"/>
+      <c r="H221" s="14"/>
     </row>
     <row r="222">
-      <c r="H222" s="9"/>
+      <c r="B222" s="11"/>
+      <c r="H222" s="14"/>
     </row>
     <row r="223">
-      <c r="H223" s="9"/>
+      <c r="B223" s="11"/>
+      <c r="H223" s="14"/>
     </row>
     <row r="224">
-      <c r="H224" s="9"/>
+      <c r="B224" s="11"/>
+      <c r="H224" s="14"/>
     </row>
     <row r="225">
-      <c r="H225" s="9"/>
+      <c r="B225" s="11"/>
+      <c r="H225" s="14"/>
     </row>
     <row r="226">
-      <c r="H226" s="9"/>
+      <c r="B226" s="11"/>
+      <c r="H226" s="14"/>
     </row>
     <row r="227">
-      <c r="H227" s="9"/>
+      <c r="B227" s="11"/>
+      <c r="H227" s="14"/>
     </row>
     <row r="228">
-      <c r="H228" s="9"/>
+      <c r="B228" s="11"/>
+      <c r="H228" s="14"/>
     </row>
     <row r="229">
-      <c r="H229" s="9"/>
+      <c r="B229" s="11"/>
+      <c r="H229" s="14"/>
     </row>
     <row r="230">
-      <c r="H230" s="9"/>
+      <c r="B230" s="11"/>
+      <c r="H230" s="14"/>
     </row>
     <row r="231">
-      <c r="H231" s="9"/>
+      <c r="B231" s="11"/>
+      <c r="H231" s="14"/>
     </row>
     <row r="232">
-      <c r="H232" s="9"/>
+      <c r="B232" s="11"/>
+      <c r="H232" s="14"/>
     </row>
     <row r="233">
-      <c r="H233" s="9"/>
+      <c r="B233" s="11"/>
+      <c r="H233" s="14"/>
     </row>
     <row r="234">
-      <c r="H234" s="9"/>
+      <c r="B234" s="11"/>
+      <c r="H234" s="14"/>
     </row>
     <row r="235">
-      <c r="H235" s="9"/>
+      <c r="B235" s="11"/>
+      <c r="H235" s="14"/>
     </row>
     <row r="236">
-      <c r="H236" s="9"/>
+      <c r="B236" s="11"/>
+      <c r="H236" s="14"/>
     </row>
     <row r="237">
-      <c r="H237" s="9"/>
+      <c r="B237" s="11"/>
+      <c r="H237" s="14"/>
     </row>
     <row r="238">
-      <c r="H238" s="9"/>
+      <c r="B238" s="11"/>
+      <c r="H238" s="14"/>
     </row>
     <row r="239">
-      <c r="H239" s="9"/>
+      <c r="B239" s="11"/>
+      <c r="H239" s="14"/>
     </row>
     <row r="240">
-      <c r="H240" s="9"/>
+      <c r="B240" s="11"/>
+      <c r="H240" s="14"/>
     </row>
     <row r="241">
-      <c r="H241" s="9"/>
+      <c r="B241" s="11"/>
+      <c r="H241" s="14"/>
     </row>
     <row r="242">
-      <c r="H242" s="9"/>
+      <c r="B242" s="11"/>
+      <c r="H242" s="14"/>
     </row>
     <row r="243">
-      <c r="H243" s="9"/>
+      <c r="B243" s="11"/>
+      <c r="H243" s="14"/>
     </row>
     <row r="244">
-      <c r="H244" s="9"/>
+      <c r="B244" s="11"/>
+      <c r="H244" s="14"/>
     </row>
     <row r="245">
-      <c r="H245" s="9"/>
+      <c r="B245" s="11"/>
+      <c r="H245" s="14"/>
     </row>
     <row r="246">
-      <c r="H246" s="9"/>
+      <c r="B246" s="11"/>
+      <c r="H246" s="14"/>
     </row>
     <row r="247">
-      <c r="H247" s="9"/>
+      <c r="B247" s="11"/>
+      <c r="H247" s="14"/>
     </row>
     <row r="248">
-      <c r="H248" s="9"/>
+      <c r="B248" s="11"/>
+      <c r="H248" s="14"/>
     </row>
     <row r="249">
-      <c r="H249" s="9"/>
+      <c r="B249" s="11"/>
+      <c r="H249" s="14"/>
     </row>
     <row r="250">
-      <c r="H250" s="9"/>
+      <c r="B250" s="11"/>
+      <c r="H250" s="14"/>
     </row>
     <row r="251">
-      <c r="H251" s="9"/>
+      <c r="B251" s="11"/>
+      <c r="H251" s="14"/>
     </row>
     <row r="252">
-      <c r="H252" s="9"/>
+      <c r="B252" s="11"/>
+      <c r="H252" s="14"/>
     </row>
     <row r="253">
-      <c r="H253" s="9"/>
+      <c r="B253" s="11"/>
+      <c r="H253" s="14"/>
     </row>
     <row r="254">
-      <c r="H254" s="9"/>
+      <c r="B254" s="11"/>
+      <c r="H254" s="14"/>
     </row>
     <row r="255">
-      <c r="H255" s="9"/>
+      <c r="B255" s="11"/>
+      <c r="H255" s="14"/>
     </row>
     <row r="256">
-      <c r="H256" s="9"/>
+      <c r="B256" s="11"/>
+      <c r="H256" s="14"/>
     </row>
     <row r="257">
-      <c r="H257" s="9"/>
+      <c r="B257" s="11"/>
+      <c r="H257" s="14"/>
     </row>
     <row r="258">
-      <c r="H258" s="9"/>
+      <c r="B258" s="11"/>
+      <c r="H258" s="14"/>
     </row>
     <row r="259">
-      <c r="H259" s="9"/>
+      <c r="B259" s="11"/>
+      <c r="H259" s="14"/>
     </row>
     <row r="260">
-      <c r="H260" s="9"/>
+      <c r="B260" s="11"/>
+      <c r="H260" s="14"/>
     </row>
     <row r="261">
-      <c r="H261" s="9"/>
+      <c r="B261" s="11"/>
+      <c r="H261" s="14"/>
     </row>
     <row r="262">
-      <c r="H262" s="9"/>
+      <c r="B262" s="11"/>
+      <c r="H262" s="14"/>
     </row>
     <row r="263">
-      <c r="H263" s="9"/>
+      <c r="B263" s="11"/>
+      <c r="H263" s="14"/>
     </row>
     <row r="264">
-      <c r="H264" s="9"/>
+      <c r="B264" s="11"/>
+      <c r="H264" s="14"/>
     </row>
     <row r="265">
-      <c r="H265" s="9"/>
+      <c r="B265" s="11"/>
+      <c r="H265" s="14"/>
     </row>
     <row r="266">
-      <c r="H266" s="9"/>
+      <c r="B266" s="11"/>
+      <c r="H266" s="14"/>
     </row>
     <row r="267">
-      <c r="H267" s="9"/>
+      <c r="B267" s="11"/>
+      <c r="H267" s="14"/>
     </row>
     <row r="268">
-      <c r="H268" s="9"/>
+      <c r="B268" s="11"/>
+      <c r="H268" s="14"/>
     </row>
     <row r="269">
-      <c r="H269" s="9"/>
+      <c r="B269" s="11"/>
+      <c r="H269" s="14"/>
     </row>
     <row r="270">
-      <c r="H270" s="9"/>
+      <c r="B270" s="11"/>
+      <c r="H270" s="14"/>
     </row>
     <row r="271">
-      <c r="H271" s="9"/>
+      <c r="B271" s="11"/>
+      <c r="H271" s="14"/>
     </row>
     <row r="272">
-      <c r="H272" s="9"/>
+      <c r="B272" s="11"/>
+      <c r="H272" s="14"/>
     </row>
     <row r="273">
-      <c r="H273" s="9"/>
+      <c r="B273" s="11"/>
+      <c r="H273" s="14"/>
     </row>
     <row r="274">
-      <c r="H274" s="9"/>
+      <c r="B274" s="11"/>
+      <c r="H274" s="14"/>
     </row>
     <row r="275">
-      <c r="H275" s="9"/>
+      <c r="B275" s="11"/>
+      <c r="H275" s="14"/>
     </row>
     <row r="276">
-      <c r="H276" s="9"/>
+      <c r="B276" s="11"/>
+      <c r="H276" s="14"/>
     </row>
     <row r="277">
-      <c r="H277" s="9"/>
+      <c r="B277" s="11"/>
+      <c r="H277" s="14"/>
     </row>
     <row r="278">
-      <c r="H278" s="9"/>
+      <c r="B278" s="11"/>
+      <c r="H278" s="14"/>
     </row>
     <row r="279">
-      <c r="H279" s="9"/>
+      <c r="B279" s="11"/>
+      <c r="H279" s="14"/>
     </row>
     <row r="280">
-      <c r="H280" s="9"/>
+      <c r="B280" s="11"/>
+      <c r="H280" s="14"/>
     </row>
     <row r="281">
-      <c r="H281" s="9"/>
+      <c r="B281" s="11"/>
+      <c r="H281" s="14"/>
     </row>
     <row r="282">
-      <c r="H282" s="9"/>
+      <c r="B282" s="11"/>
+      <c r="H282" s="14"/>
     </row>
     <row r="283">
-      <c r="H283" s="9"/>
+      <c r="B283" s="11"/>
+      <c r="H283" s="14"/>
     </row>
     <row r="284">
-      <c r="H284" s="9"/>
+      <c r="B284" s="11"/>
+      <c r="H284" s="14"/>
     </row>
     <row r="285">
-      <c r="H285" s="9"/>
+      <c r="B285" s="11"/>
+      <c r="H285" s="14"/>
     </row>
     <row r="286">
-      <c r="H286" s="9"/>
+      <c r="B286" s="11"/>
+      <c r="H286" s="14"/>
     </row>
     <row r="287">
-      <c r="H287" s="9"/>
+      <c r="B287" s="11"/>
+      <c r="H287" s="14"/>
     </row>
     <row r="288">
-      <c r="H288" s="9"/>
+      <c r="B288" s="11"/>
+      <c r="H288" s="14"/>
     </row>
     <row r="289">
-      <c r="H289" s="9"/>
+      <c r="B289" s="11"/>
+      <c r="H289" s="14"/>
     </row>
     <row r="290">
-      <c r="H290" s="9"/>
+      <c r="B290" s="11"/>
+      <c r="H290" s="14"/>
     </row>
     <row r="291">
-      <c r="H291" s="9"/>
+      <c r="B291" s="11"/>
+      <c r="H291" s="14"/>
     </row>
     <row r="292">
-      <c r="H292" s="9"/>
+      <c r="B292" s="11"/>
+      <c r="H292" s="14"/>
     </row>
     <row r="293">
-      <c r="H293" s="9"/>
+      <c r="B293" s="11"/>
+      <c r="H293" s="14"/>
     </row>
     <row r="294">
-      <c r="H294" s="9"/>
+      <c r="B294" s="11"/>
+      <c r="H294" s="14"/>
     </row>
     <row r="295">
-      <c r="H295" s="9"/>
+      <c r="B295" s="11"/>
+      <c r="H295" s="14"/>
     </row>
     <row r="296">
-      <c r="H296" s="9"/>
+      <c r="B296" s="11"/>
+      <c r="H296" s="14"/>
     </row>
     <row r="297">
-      <c r="H297" s="9"/>
+      <c r="B297" s="11"/>
+      <c r="H297" s="14"/>
     </row>
     <row r="298">
-      <c r="H298" s="9"/>
+      <c r="B298" s="11"/>
+      <c r="H298" s="14"/>
     </row>
     <row r="299">
-      <c r="H299" s="9"/>
+      <c r="B299" s="11"/>
+      <c r="H299" s="14"/>
     </row>
     <row r="300">
-      <c r="H300" s="9"/>
+      <c r="B300" s="11"/>
+      <c r="H300" s="14"/>
     </row>
     <row r="301">
-      <c r="H301" s="9"/>
+      <c r="B301" s="11"/>
+      <c r="H301" s="14"/>
     </row>
     <row r="302">
-      <c r="H302" s="9"/>
+      <c r="B302" s="11"/>
+      <c r="H302" s="14"/>
     </row>
     <row r="303">
-      <c r="H303" s="9"/>
+      <c r="B303" s="11"/>
+      <c r="H303" s="14"/>
     </row>
     <row r="304">
-      <c r="H304" s="9"/>
+      <c r="B304" s="11"/>
+      <c r="H304" s="14"/>
     </row>
     <row r="305">
-      <c r="H305" s="9"/>
+      <c r="B305" s="11"/>
+      <c r="H305" s="14"/>
     </row>
     <row r="306">
-      <c r="H306" s="9"/>
+      <c r="B306" s="11"/>
+      <c r="H306" s="14"/>
     </row>
     <row r="307">
-      <c r="H307" s="9"/>
+      <c r="B307" s="11"/>
+      <c r="H307" s="14"/>
     </row>
     <row r="308">
-      <c r="H308" s="9"/>
+      <c r="B308" s="11"/>
+      <c r="H308" s="14"/>
     </row>
     <row r="309">
-      <c r="H309" s="9"/>
+      <c r="B309" s="11"/>
+      <c r="H309" s="14"/>
     </row>
     <row r="310">
-      <c r="H310" s="9"/>
+      <c r="B310" s="11"/>
+      <c r="H310" s="14"/>
     </row>
     <row r="311">
-      <c r="H311" s="9"/>
+      <c r="B311" s="11"/>
+      <c r="H311" s="14"/>
     </row>
     <row r="312">
-      <c r="H312" s="9"/>
+      <c r="B312" s="11"/>
+      <c r="H312" s="14"/>
     </row>
     <row r="313">
-      <c r="H313" s="9"/>
+      <c r="B313" s="11"/>
+      <c r="H313" s="14"/>
     </row>
     <row r="314">
-      <c r="H314" s="9"/>
+      <c r="B314" s="11"/>
+      <c r="H314" s="14"/>
     </row>
     <row r="315">
-      <c r="H315" s="9"/>
+      <c r="B315" s="11"/>
+      <c r="H315" s="14"/>
     </row>
     <row r="316">
-      <c r="H316" s="9"/>
+      <c r="B316" s="11"/>
+      <c r="H316" s="14"/>
     </row>
     <row r="317">
-      <c r="H317" s="9"/>
+      <c r="B317" s="11"/>
+      <c r="H317" s="14"/>
     </row>
     <row r="318">
-      <c r="H318" s="9"/>
+      <c r="B318" s="11"/>
+      <c r="H318" s="14"/>
     </row>
     <row r="319">
-      <c r="H319" s="9"/>
+      <c r="B319" s="11"/>
+      <c r="H319" s="14"/>
     </row>
     <row r="320">
-      <c r="H320" s="9"/>
+      <c r="B320" s="11"/>
+      <c r="H320" s="14"/>
     </row>
     <row r="321">
-      <c r="H321" s="9"/>
+      <c r="B321" s="11"/>
+      <c r="H321" s="14"/>
     </row>
     <row r="322">
-      <c r="H322" s="9"/>
+      <c r="B322" s="11"/>
+      <c r="H322" s="14"/>
     </row>
     <row r="323">
-      <c r="H323" s="9"/>
+      <c r="B323" s="11"/>
+      <c r="H323" s="14"/>
     </row>
     <row r="324">
-      <c r="H324" s="9"/>
+      <c r="B324" s="11"/>
+      <c r="H324" s="14"/>
     </row>
     <row r="325">
-      <c r="H325" s="9"/>
+      <c r="B325" s="11"/>
+      <c r="H325" s="14"/>
     </row>
     <row r="326">
-      <c r="H326" s="9"/>
+      <c r="B326" s="11"/>
+      <c r="H326" s="14"/>
     </row>
     <row r="327">
-      <c r="H327" s="9"/>
+      <c r="B327" s="11"/>
+      <c r="H327" s="14"/>
     </row>
     <row r="328">
-      <c r="H328" s="9"/>
+      <c r="B328" s="11"/>
+      <c r="H328" s="14"/>
     </row>
     <row r="329">
-      <c r="H329" s="9"/>
+      <c r="B329" s="11"/>
+      <c r="H329" s="14"/>
     </row>
     <row r="330">
-      <c r="H330" s="9"/>
+      <c r="B330" s="11"/>
+      <c r="H330" s="14"/>
     </row>
     <row r="331">
-      <c r="H331" s="9"/>
+      <c r="B331" s="11"/>
+      <c r="H331" s="14"/>
     </row>
     <row r="332">
-      <c r="H332" s="9"/>
+      <c r="B332" s="11"/>
+      <c r="H332" s="14"/>
     </row>
     <row r="333">
-      <c r="H333" s="9"/>
+      <c r="B333" s="11"/>
+      <c r="H333" s="14"/>
     </row>
     <row r="334">
-      <c r="H334" s="9"/>
+      <c r="B334" s="11"/>
+      <c r="H334" s="14"/>
     </row>
     <row r="335">
-      <c r="H335" s="9"/>
+      <c r="B335" s="11"/>
+      <c r="H335" s="14"/>
     </row>
     <row r="336">
-      <c r="H336" s="9"/>
+      <c r="B336" s="11"/>
+      <c r="H336" s="14"/>
     </row>
     <row r="337">
-      <c r="H337" s="9"/>
+      <c r="B337" s="11"/>
+      <c r="H337" s="14"/>
     </row>
     <row r="338">
-      <c r="H338" s="9"/>
+      <c r="B338" s="11"/>
+      <c r="H338" s="14"/>
     </row>
     <row r="339">
-      <c r="H339" s="9"/>
+      <c r="B339" s="11"/>
+      <c r="H339" s="14"/>
     </row>
     <row r="340">
-      <c r="H340" s="9"/>
+      <c r="B340" s="11"/>
+      <c r="H340" s="14"/>
     </row>
     <row r="341">
-      <c r="H341" s="9"/>
+      <c r="B341" s="11"/>
+      <c r="H341" s="14"/>
     </row>
     <row r="342">
-      <c r="H342" s="9"/>
+      <c r="B342" s="11"/>
+      <c r="H342" s="14"/>
     </row>
     <row r="343">
-      <c r="H343" s="9"/>
+      <c r="B343" s="11"/>
+      <c r="H343" s="14"/>
     </row>
     <row r="344">
-      <c r="H344" s="9"/>
+      <c r="B344" s="11"/>
+      <c r="H344" s="14"/>
     </row>
     <row r="345">
-      <c r="H345" s="9"/>
+      <c r="B345" s="11"/>
+      <c r="H345" s="14"/>
     </row>
     <row r="346">
-      <c r="H346" s="9"/>
+      <c r="B346" s="11"/>
+      <c r="H346" s="14"/>
     </row>
     <row r="347">
-      <c r="H347" s="9"/>
+      <c r="B347" s="11"/>
+      <c r="H347" s="14"/>
     </row>
     <row r="348">
-      <c r="H348" s="9"/>
+      <c r="B348" s="11"/>
+      <c r="H348" s="14"/>
     </row>
     <row r="349">
-      <c r="H349" s="9"/>
+      <c r="B349" s="11"/>
+      <c r="H349" s="14"/>
     </row>
     <row r="350">
-      <c r="H350" s="9"/>
+      <c r="B350" s="11"/>
+      <c r="H350" s="14"/>
     </row>
     <row r="351">
-      <c r="H351" s="9"/>
+      <c r="B351" s="11"/>
+      <c r="H351" s="14"/>
     </row>
     <row r="352">
-      <c r="H352" s="9"/>
+      <c r="B352" s="11"/>
+      <c r="H352" s="14"/>
     </row>
     <row r="353">
-      <c r="H353" s="9"/>
+      <c r="B353" s="11"/>
+      <c r="H353" s="14"/>
     </row>
     <row r="354">
-      <c r="H354" s="9"/>
+      <c r="B354" s="11"/>
+      <c r="H354" s="14"/>
     </row>
     <row r="355">
-      <c r="H355" s="9"/>
+      <c r="B355" s="11"/>
+      <c r="H355" s="14"/>
     </row>
     <row r="356">
-      <c r="H356" s="9"/>
+      <c r="B356" s="11"/>
+      <c r="H356" s="14"/>
     </row>
     <row r="357">
-      <c r="H357" s="9"/>
+      <c r="B357" s="11"/>
+      <c r="H357" s="14"/>
     </row>
     <row r="358">
-      <c r="H358" s="9"/>
+      <c r="B358" s="11"/>
+      <c r="H358" s="14"/>
     </row>
     <row r="359">
-      <c r="H359" s="9"/>
+      <c r="B359" s="11"/>
+      <c r="H359" s="14"/>
     </row>
     <row r="360">
-      <c r="H360" s="9"/>
+      <c r="B360" s="11"/>
+      <c r="H360" s="14"/>
     </row>
     <row r="361">
-      <c r="H361" s="9"/>
+      <c r="B361" s="11"/>
+      <c r="H361" s="14"/>
     </row>
     <row r="362">
-      <c r="H362" s="9"/>
+      <c r="B362" s="11"/>
+      <c r="H362" s="14"/>
     </row>
     <row r="363">
-      <c r="H363" s="9"/>
+      <c r="B363" s="11"/>
+      <c r="H363" s="14"/>
     </row>
     <row r="364">
-      <c r="H364" s="9"/>
+      <c r="B364" s="11"/>
+      <c r="H364" s="14"/>
     </row>
     <row r="365">
-      <c r="H365" s="9"/>
+      <c r="B365" s="11"/>
+      <c r="H365" s="14"/>
     </row>
     <row r="366">
-      <c r="H366" s="9"/>
+      <c r="B366" s="11"/>
+      <c r="H366" s="14"/>
     </row>
     <row r="367">
-      <c r="H367" s="9"/>
+      <c r="B367" s="11"/>
+      <c r="H367" s="14"/>
     </row>
     <row r="368">
-      <c r="H368" s="9"/>
+      <c r="B368" s="11"/>
+      <c r="H368" s="14"/>
     </row>
     <row r="369">
-      <c r="H369" s="9"/>
+      <c r="B369" s="11"/>
+      <c r="H369" s="14"/>
     </row>
     <row r="370">
-      <c r="H370" s="9"/>
+      <c r="B370" s="11"/>
+      <c r="H370" s="14"/>
     </row>
     <row r="371">
-      <c r="H371" s="9"/>
+      <c r="B371" s="11"/>
+      <c r="H371" s="14"/>
     </row>
     <row r="372">
-      <c r="H372" s="9"/>
+      <c r="B372" s="11"/>
+      <c r="H372" s="14"/>
     </row>
     <row r="373">
-      <c r="H373" s="9"/>
+      <c r="B373" s="11"/>
+      <c r="H373" s="14"/>
     </row>
     <row r="374">
-      <c r="H374" s="9"/>
+      <c r="B374" s="11"/>
+      <c r="H374" s="14"/>
     </row>
     <row r="375">
-      <c r="H375" s="9"/>
+      <c r="B375" s="11"/>
+      <c r="H375" s="14"/>
     </row>
     <row r="376">
-      <c r="H376" s="9"/>
+      <c r="B376" s="11"/>
+      <c r="H376" s="14"/>
     </row>
     <row r="377">
-      <c r="H377" s="9"/>
+      <c r="B377" s="11"/>
+      <c r="H377" s="14"/>
     </row>
     <row r="378">
-      <c r="H378" s="9"/>
+      <c r="B378" s="11"/>
+      <c r="H378" s="14"/>
     </row>
     <row r="379">
-      <c r="H379" s="9"/>
+      <c r="B379" s="11"/>
+      <c r="H379" s="14"/>
     </row>
     <row r="380">
-      <c r="H380" s="9"/>
+      <c r="B380" s="11"/>
+      <c r="H380" s="14"/>
     </row>
     <row r="381">
-      <c r="H381" s="9"/>
+      <c r="B381" s="11"/>
+      <c r="H381" s="14"/>
     </row>
     <row r="382">
-      <c r="H382" s="9"/>
+      <c r="B382" s="11"/>
+      <c r="H382" s="14"/>
     </row>
     <row r="383">
-      <c r="H383" s="9"/>
+      <c r="B383" s="11"/>
+      <c r="H383" s="14"/>
     </row>
     <row r="384">
-      <c r="H384" s="9"/>
+      <c r="B384" s="11"/>
+      <c r="H384" s="14"/>
     </row>
     <row r="385">
-      <c r="H385" s="9"/>
+      <c r="B385" s="11"/>
+      <c r="H385" s="14"/>
     </row>
     <row r="386">
-      <c r="H386" s="9"/>
+      <c r="B386" s="11"/>
+      <c r="H386" s="14"/>
     </row>
     <row r="387">
-      <c r="H387" s="9"/>
+      <c r="B387" s="11"/>
+      <c r="H387" s="14"/>
     </row>
     <row r="388">
-      <c r="H388" s="9"/>
+      <c r="B388" s="11"/>
+      <c r="H388" s="14"/>
     </row>
     <row r="389">
-      <c r="H389" s="9"/>
+      <c r="B389" s="11"/>
+      <c r="H389" s="14"/>
     </row>
     <row r="390">
-      <c r="H390" s="9"/>
+      <c r="B390" s="11"/>
+      <c r="H390" s="14"/>
     </row>
     <row r="391">
-      <c r="H391" s="9"/>
+      <c r="B391" s="11"/>
+      <c r="H391" s="14"/>
     </row>
     <row r="392">
-      <c r="H392" s="9"/>
+      <c r="B392" s="11"/>
+      <c r="H392" s="14"/>
     </row>
     <row r="393">
-      <c r="H393" s="9"/>
+      <c r="B393" s="11"/>
+      <c r="H393" s="14"/>
     </row>
     <row r="394">
-      <c r="H394" s="9"/>
+      <c r="B394" s="11"/>
+      <c r="H394" s="14"/>
     </row>
     <row r="395">
-      <c r="H395" s="9"/>
+      <c r="B395" s="11"/>
+      <c r="H395" s="14"/>
     </row>
     <row r="396">
-      <c r="H396" s="9"/>
+      <c r="B396" s="11"/>
+      <c r="H396" s="14"/>
     </row>
     <row r="397">
-      <c r="H397" s="9"/>
+      <c r="B397" s="11"/>
+      <c r="H397" s="14"/>
     </row>
     <row r="398">
-      <c r="H398" s="9"/>
+      <c r="B398" s="11"/>
+      <c r="H398" s="14"/>
     </row>
     <row r="399">
-      <c r="H399" s="9"/>
+      <c r="B399" s="11"/>
+      <c r="H399" s="14"/>
     </row>
     <row r="400">
-      <c r="H400" s="9"/>
+      <c r="B400" s="11"/>
+      <c r="H400" s="14"/>
     </row>
     <row r="401">
-      <c r="H401" s="9"/>
+      <c r="B401" s="11"/>
+      <c r="H401" s="14"/>
     </row>
     <row r="402">
-      <c r="H402" s="9"/>
+      <c r="B402" s="11"/>
+      <c r="H402" s="14"/>
     </row>
     <row r="403">
-      <c r="H403" s="9"/>
+      <c r="B403" s="11"/>
+      <c r="H403" s="14"/>
     </row>
     <row r="404">
-      <c r="H404" s="9"/>
+      <c r="B404" s="11"/>
+      <c r="H404" s="14"/>
     </row>
     <row r="405">
-      <c r="H405" s="9"/>
+      <c r="B405" s="11"/>
+      <c r="H405" s="14"/>
     </row>
     <row r="406">
-      <c r="H406" s="9"/>
+      <c r="B406" s="11"/>
+      <c r="H406" s="14"/>
     </row>
     <row r="407">
-      <c r="H407" s="9"/>
+      <c r="B407" s="11"/>
+      <c r="H407" s="14"/>
     </row>
     <row r="408">
-      <c r="H408" s="9"/>
+      <c r="B408" s="11"/>
+      <c r="H408" s="14"/>
     </row>
     <row r="409">
-      <c r="H409" s="9"/>
+      <c r="B409" s="11"/>
+      <c r="H409" s="14"/>
     </row>
     <row r="410">
-      <c r="H410" s="9"/>
+      <c r="B410" s="11"/>
+      <c r="H410" s="14"/>
     </row>
     <row r="411">
-      <c r="H411" s="9"/>
+      <c r="B411" s="11"/>
+      <c r="H411" s="14"/>
     </row>
     <row r="412">
-      <c r="H412" s="9"/>
+      <c r="B412" s="11"/>
+      <c r="H412" s="14"/>
     </row>
     <row r="413">
-      <c r="H413" s="9"/>
+      <c r="B413" s="11"/>
+      <c r="H413" s="14"/>
     </row>
     <row r="414">
-      <c r="H414" s="9"/>
+      <c r="B414" s="11"/>
+      <c r="H414" s="14"/>
     </row>
     <row r="415">
-      <c r="H415" s="9"/>
+      <c r="B415" s="11"/>
+      <c r="H415" s="14"/>
     </row>
     <row r="416">
-      <c r="H416" s="9"/>
+      <c r="B416" s="11"/>
+      <c r="H416" s="14"/>
     </row>
     <row r="417">
-      <c r="H417" s="9"/>
+      <c r="B417" s="11"/>
+      <c r="H417" s="14"/>
     </row>
     <row r="418">
-      <c r="H418" s="9"/>
+      <c r="B418" s="11"/>
+      <c r="H418" s="14"/>
     </row>
     <row r="419">
-      <c r="H419" s="9"/>
+      <c r="B419" s="11"/>
+      <c r="H419" s="14"/>
     </row>
     <row r="420">
-      <c r="H420" s="9"/>
+      <c r="B420" s="11"/>
+      <c r="H420" s="14"/>
     </row>
     <row r="421">
-      <c r="H421" s="9"/>
+      <c r="B421" s="11"/>
+      <c r="H421" s="14"/>
     </row>
     <row r="422">
-      <c r="H422" s="9"/>
+      <c r="B422" s="11"/>
+      <c r="H422" s="14"/>
     </row>
     <row r="423">
-      <c r="H423" s="9"/>
+      <c r="B423" s="11"/>
+      <c r="H423" s="14"/>
     </row>
     <row r="424">
-      <c r="H424" s="9"/>
+      <c r="B424" s="11"/>
+      <c r="H424" s="14"/>
     </row>
     <row r="425">
-      <c r="H425" s="9"/>
+      <c r="B425" s="11"/>
+      <c r="H425" s="14"/>
     </row>
     <row r="426">
-      <c r="H426" s="9"/>
+      <c r="B426" s="11"/>
+      <c r="H426" s="14"/>
     </row>
     <row r="427">
-      <c r="H427" s="9"/>
+      <c r="B427" s="11"/>
+      <c r="H427" s="14"/>
     </row>
     <row r="428">
-      <c r="H428" s="9"/>
+      <c r="B428" s="11"/>
+      <c r="H428" s="14"/>
     </row>
     <row r="429">
-      <c r="H429" s="9"/>
+      <c r="B429" s="11"/>
+      <c r="H429" s="14"/>
     </row>
     <row r="430">
-      <c r="H430" s="9"/>
+      <c r="B430" s="11"/>
+      <c r="H430" s="14"/>
     </row>
     <row r="431">
-      <c r="H431" s="9"/>
+      <c r="B431" s="11"/>
+      <c r="H431" s="14"/>
     </row>
     <row r="432">
-      <c r="H432" s="9"/>
+      <c r="B432" s="11"/>
+      <c r="H432" s="14"/>
     </row>
     <row r="433">
-      <c r="H433" s="9"/>
+      <c r="B433" s="11"/>
+      <c r="H433" s="14"/>
     </row>
     <row r="434">
-      <c r="H434" s="9"/>
+      <c r="B434" s="11"/>
+      <c r="H434" s="14"/>
     </row>
     <row r="435">
-      <c r="H435" s="9"/>
+      <c r="B435" s="11"/>
+      <c r="H435" s="14"/>
     </row>
     <row r="436">
-      <c r="H436" s="9"/>
+      <c r="B436" s="11"/>
+      <c r="H436" s="14"/>
     </row>
     <row r="437">
-      <c r="H437" s="9"/>
+      <c r="B437" s="11"/>
+      <c r="H437" s="14"/>
     </row>
     <row r="438">
-      <c r="H438" s="9"/>
+      <c r="B438" s="11"/>
+      <c r="H438" s="14"/>
     </row>
     <row r="439">
-      <c r="H439" s="9"/>
+      <c r="B439" s="11"/>
+      <c r="H439" s="14"/>
     </row>
     <row r="440">
-      <c r="H440" s="9"/>
+      <c r="B440" s="11"/>
+      <c r="H440" s="14"/>
     </row>
     <row r="441">
-      <c r="H441" s="9"/>
+      <c r="B441" s="11"/>
+      <c r="H441" s="14"/>
     </row>
     <row r="442">
-      <c r="H442" s="9"/>
+      <c r="B442" s="11"/>
+      <c r="H442" s="14"/>
     </row>
     <row r="443">
-      <c r="H443" s="9"/>
+      <c r="B443" s="11"/>
+      <c r="H443" s="14"/>
     </row>
     <row r="444">
-      <c r="H444" s="9"/>
+      <c r="B444" s="11"/>
+      <c r="H444" s="14"/>
     </row>
     <row r="445">
-      <c r="H445" s="9"/>
+      <c r="B445" s="11"/>
+      <c r="H445" s="14"/>
     </row>
     <row r="446">
-      <c r="H446" s="9"/>
+      <c r="B446" s="11"/>
+      <c r="H446" s="14"/>
     </row>
     <row r="447">
-      <c r="H447" s="9"/>
+      <c r="B447" s="11"/>
+      <c r="H447" s="14"/>
     </row>
     <row r="448">
-      <c r="H448" s="9"/>
+      <c r="B448" s="11"/>
+      <c r="H448" s="14"/>
     </row>
     <row r="449">
-      <c r="H449" s="9"/>
+      <c r="B449" s="11"/>
+      <c r="H449" s="14"/>
     </row>
     <row r="450">
-      <c r="H450" s="9"/>
+      <c r="B450" s="11"/>
+      <c r="H450" s="14"/>
     </row>
     <row r="451">
-      <c r="H451" s="9"/>
+      <c r="B451" s="11"/>
+      <c r="H451" s="14"/>
     </row>
     <row r="452">
-      <c r="H452" s="9"/>
+      <c r="B452" s="11"/>
+      <c r="H452" s="14"/>
     </row>
     <row r="453">
-      <c r="H453" s="9"/>
+      <c r="B453" s="11"/>
+      <c r="H453" s="14"/>
     </row>
     <row r="454">
-      <c r="H454" s="9"/>
+      <c r="B454" s="11"/>
+      <c r="H454" s="14"/>
     </row>
     <row r="455">
-      <c r="H455" s="9"/>
+      <c r="B455" s="11"/>
+      <c r="H455" s="14"/>
     </row>
     <row r="456">
-      <c r="H456" s="9"/>
+      <c r="B456" s="11"/>
+      <c r="H456" s="14"/>
     </row>
     <row r="457">
-      <c r="H457" s="9"/>
+      <c r="B457" s="11"/>
+      <c r="H457" s="14"/>
     </row>
     <row r="458">
-      <c r="H458" s="9"/>
+      <c r="B458" s="11"/>
+      <c r="H458" s="14"/>
     </row>
     <row r="459">
-      <c r="H459" s="9"/>
+      <c r="B459" s="11"/>
+      <c r="H459" s="14"/>
     </row>
     <row r="460">
-      <c r="H460" s="9"/>
+      <c r="B460" s="11"/>
+      <c r="H460" s="14"/>
     </row>
     <row r="461">
-      <c r="H461" s="9"/>
+      <c r="B461" s="11"/>
+      <c r="H461" s="14"/>
     </row>
     <row r="462">
-      <c r="H462" s="9"/>
+      <c r="B462" s="11"/>
+      <c r="H462" s="14"/>
     </row>
     <row r="463">
-      <c r="H463" s="9"/>
+      <c r="B463" s="11"/>
+      <c r="H463" s="14"/>
     </row>
     <row r="464">
-      <c r="H464" s="9"/>
+      <c r="B464" s="11"/>
+      <c r="H464" s="14"/>
     </row>
     <row r="465">
-      <c r="H465" s="9"/>
+      <c r="B465" s="11"/>
+      <c r="H465" s="14"/>
     </row>
     <row r="466">
-      <c r="H466" s="9"/>
+      <c r="B466" s="11"/>
+      <c r="H466" s="14"/>
     </row>
     <row r="467">
-      <c r="H467" s="9"/>
+      <c r="B467" s="11"/>
+      <c r="H467" s="14"/>
     </row>
     <row r="468">
-      <c r="H468" s="9"/>
+      <c r="B468" s="11"/>
+      <c r="H468" s="14"/>
     </row>
     <row r="469">
-      <c r="H469" s="9"/>
+      <c r="B469" s="11"/>
+      <c r="H469" s="14"/>
     </row>
     <row r="470">
-      <c r="H470" s="9"/>
+      <c r="B470" s="11"/>
+      <c r="H470" s="14"/>
     </row>
     <row r="471">
-      <c r="H471" s="9"/>
+      <c r="B471" s="11"/>
+      <c r="H471" s="14"/>
     </row>
     <row r="472">
-      <c r="H472" s="9"/>
+      <c r="B472" s="11"/>
+      <c r="H472" s="14"/>
     </row>
     <row r="473">
-      <c r="H473" s="9"/>
+      <c r="B473" s="11"/>
+      <c r="H473" s="14"/>
     </row>
     <row r="474">
-      <c r="H474" s="9"/>
+      <c r="B474" s="11"/>
+      <c r="H474" s="14"/>
     </row>
     <row r="475">
-      <c r="H475" s="9"/>
+      <c r="B475" s="11"/>
+      <c r="H475" s="14"/>
     </row>
     <row r="476">
-      <c r="H476" s="9"/>
+      <c r="B476" s="11"/>
+      <c r="H476" s="14"/>
     </row>
     <row r="477">
-      <c r="H477" s="9"/>
+      <c r="B477" s="11"/>
+      <c r="H477" s="14"/>
     </row>
     <row r="478">
-      <c r="H478" s="9"/>
+      <c r="B478" s="11"/>
+      <c r="H478" s="14"/>
     </row>
     <row r="479">
-      <c r="H479" s="9"/>
+      <c r="B479" s="11"/>
+      <c r="H479" s="14"/>
     </row>
     <row r="480">
-      <c r="H480" s="9"/>
+      <c r="B480" s="11"/>
+      <c r="H480" s="14"/>
     </row>
     <row r="481">
-      <c r="H481" s="9"/>
+      <c r="B481" s="11"/>
+      <c r="H481" s="14"/>
     </row>
     <row r="482">
-      <c r="H482" s="9"/>
+      <c r="B482" s="11"/>
+      <c r="H482" s="14"/>
     </row>
     <row r="483">
-      <c r="H483" s="9"/>
+      <c r="B483" s="11"/>
+      <c r="H483" s="14"/>
     </row>
     <row r="484">
-      <c r="H484" s="9"/>
+      <c r="B484" s="11"/>
+      <c r="H484" s="14"/>
     </row>
     <row r="485">
-      <c r="H485" s="9"/>
+      <c r="B485" s="11"/>
+      <c r="H485" s="14"/>
     </row>
     <row r="486">
-      <c r="H486" s="9"/>
+      <c r="B486" s="11"/>
+      <c r="H486" s="14"/>
     </row>
     <row r="487">
-      <c r="H487" s="9"/>
+      <c r="B487" s="11"/>
+      <c r="H487" s="14"/>
     </row>
     <row r="488">
-      <c r="H488" s="9"/>
+      <c r="B488" s="11"/>
+      <c r="H488" s="14"/>
     </row>
     <row r="489">
-      <c r="H489" s="9"/>
+      <c r="B489" s="11"/>
+      <c r="H489" s="14"/>
     </row>
     <row r="490">
-      <c r="H490" s="9"/>
+      <c r="B490" s="11"/>
+      <c r="H490" s="14"/>
     </row>
     <row r="491">
-      <c r="H491" s="9"/>
+      <c r="B491" s="11"/>
+      <c r="H491" s="14"/>
     </row>
     <row r="492">
-      <c r="H492" s="9"/>
+      <c r="B492" s="11"/>
+      <c r="H492" s="14"/>
     </row>
     <row r="493">
-      <c r="H493" s="9"/>
+      <c r="B493" s="11"/>
+      <c r="H493" s="14"/>
     </row>
     <row r="494">
-      <c r="H494" s="9"/>
+      <c r="B494" s="11"/>
+      <c r="H494" s="14"/>
     </row>
     <row r="495">
-      <c r="H495" s="9"/>
+      <c r="B495" s="11"/>
+      <c r="H495" s="14"/>
     </row>
     <row r="496">
-      <c r="H496" s="9"/>
+      <c r="B496" s="11"/>
+      <c r="H496" s="14"/>
     </row>
     <row r="497">
-      <c r="H497" s="9"/>
+      <c r="B497" s="11"/>
+      <c r="H497" s="14"/>
     </row>
     <row r="498">
-      <c r="H498" s="9"/>
+      <c r="B498" s="11"/>
+      <c r="H498" s="14"/>
     </row>
     <row r="499">
-      <c r="H499" s="9"/>
+      <c r="B499" s="11"/>
+      <c r="H499" s="14"/>
     </row>
     <row r="500">
-      <c r="H500" s="9"/>
+      <c r="B500" s="11"/>
+      <c r="H500" s="14"/>
     </row>
     <row r="501">
-      <c r="H501" s="9"/>
+      <c r="B501" s="11"/>
+      <c r="H501" s="14"/>
     </row>
     <row r="502">
-      <c r="H502" s="9"/>
+      <c r="B502" s="11"/>
+      <c r="H502" s="14"/>
     </row>
     <row r="503">
-      <c r="H503" s="9"/>
+      <c r="B503" s="11"/>
+      <c r="H503" s="14"/>
     </row>
     <row r="504">
-      <c r="H504" s="9"/>
+      <c r="B504" s="11"/>
+      <c r="H504" s="14"/>
     </row>
     <row r="505">
-      <c r="H505" s="9"/>
+      <c r="B505" s="11"/>
+      <c r="H505" s="14"/>
     </row>
     <row r="506">
-      <c r="H506" s="9"/>
+      <c r="B506" s="11"/>
+      <c r="H506" s="14"/>
     </row>
     <row r="507">
-      <c r="H507" s="9"/>
+      <c r="B507" s="11"/>
+      <c r="H507" s="14"/>
     </row>
     <row r="508">
-      <c r="H508" s="9"/>
+      <c r="B508" s="11"/>
+      <c r="H508" s="14"/>
     </row>
     <row r="509">
-      <c r="H509" s="9"/>
+      <c r="B509" s="11"/>
+      <c r="H509" s="14"/>
     </row>
     <row r="510">
-      <c r="H510" s="9"/>
+      <c r="B510" s="11"/>
+      <c r="H510" s="14"/>
     </row>
     <row r="511">
-      <c r="H511" s="9"/>
+      <c r="B511" s="11"/>
+      <c r="H511" s="14"/>
     </row>
     <row r="512">
-      <c r="H512" s="9"/>
+      <c r="B512" s="11"/>
+      <c r="H512" s="14"/>
     </row>
     <row r="513">
-      <c r="H513" s="9"/>
+      <c r="B513" s="11"/>
+      <c r="H513" s="14"/>
     </row>
     <row r="514">
-      <c r="H514" s="9"/>
+      <c r="B514" s="11"/>
+      <c r="H514" s="14"/>
     </row>
     <row r="515">
-      <c r="H515" s="9"/>
+      <c r="B515" s="11"/>
+      <c r="H515" s="14"/>
     </row>
     <row r="516">
-      <c r="H516" s="9"/>
+      <c r="B516" s="11"/>
+      <c r="H516" s="14"/>
     </row>
     <row r="517">
-      <c r="H517" s="9"/>
+      <c r="B517" s="11"/>
+      <c r="H517" s="14"/>
     </row>
     <row r="518">
-      <c r="H518" s="9"/>
+      <c r="B518" s="11"/>
+      <c r="H518" s="14"/>
     </row>
     <row r="519">
-      <c r="H519" s="9"/>
+      <c r="B519" s="11"/>
+      <c r="H519" s="14"/>
     </row>
     <row r="520">
-      <c r="H520" s="9"/>
+      <c r="B520" s="11"/>
+      <c r="H520" s="14"/>
     </row>
     <row r="521">
-      <c r="H521" s="9"/>
+      <c r="B521" s="11"/>
+      <c r="H521" s="14"/>
     </row>
     <row r="522">
-      <c r="H522" s="9"/>
+      <c r="B522" s="11"/>
+      <c r="H522" s="14"/>
     </row>
     <row r="523">
-      <c r="H523" s="9"/>
+      <c r="B523" s="11"/>
+      <c r="H523" s="14"/>
     </row>
     <row r="524">
-      <c r="H524" s="9"/>
+      <c r="B524" s="11"/>
+      <c r="H524" s="14"/>
     </row>
     <row r="525">
-      <c r="H525" s="9"/>
+      <c r="B525" s="11"/>
+      <c r="H525" s="14"/>
     </row>
     <row r="526">
-      <c r="H526" s="9"/>
+      <c r="B526" s="11"/>
+      <c r="H526" s="14"/>
     </row>
     <row r="527">
-      <c r="H527" s="9"/>
+      <c r="B527" s="11"/>
+      <c r="H527" s="14"/>
     </row>
     <row r="528">
-      <c r="H528" s="9"/>
+      <c r="B528" s="11"/>
+      <c r="H528" s="14"/>
     </row>
     <row r="529">
-      <c r="H529" s="9"/>
+      <c r="B529" s="11"/>
+      <c r="H529" s="14"/>
     </row>
     <row r="530">
-      <c r="H530" s="9"/>
+      <c r="B530" s="11"/>
+      <c r="H530" s="14"/>
     </row>
     <row r="531">
-      <c r="H531" s="9"/>
+      <c r="B531" s="11"/>
+      <c r="H531" s="14"/>
     </row>
     <row r="532">
-      <c r="H532" s="9"/>
+      <c r="B532" s="11"/>
+      <c r="H532" s="14"/>
     </row>
     <row r="533">
-      <c r="H533" s="9"/>
+      <c r="B533" s="11"/>
+      <c r="H533" s="14"/>
     </row>
     <row r="534">
-      <c r="H534" s="9"/>
+      <c r="B534" s="11"/>
+      <c r="H534" s="14"/>
     </row>
     <row r="535">
-      <c r="H535" s="9"/>
+      <c r="B535" s="11"/>
+      <c r="H535" s="14"/>
     </row>
     <row r="536">
-      <c r="H536" s="9"/>
+      <c r="B536" s="11"/>
+      <c r="H536" s="14"/>
     </row>
     <row r="537">
-      <c r="H537" s="9"/>
+      <c r="B537" s="11"/>
+      <c r="H537" s="14"/>
     </row>
     <row r="538">
-      <c r="H538" s="9"/>
+      <c r="B538" s="11"/>
+      <c r="H538" s="14"/>
     </row>
     <row r="539">
-      <c r="H539" s="9"/>
+      <c r="B539" s="11"/>
+      <c r="H539" s="14"/>
     </row>
     <row r="540">
-      <c r="H540" s="9"/>
+      <c r="B540" s="11"/>
+      <c r="H540" s="14"/>
     </row>
     <row r="541">
-      <c r="H541" s="9"/>
+      <c r="B541" s="11"/>
+      <c r="H541" s="14"/>
     </row>
     <row r="542">
-      <c r="H542" s="9"/>
+      <c r="B542" s="11"/>
+      <c r="H542" s="14"/>
     </row>
     <row r="543">
-      <c r="H543" s="9"/>
+      <c r="B543" s="11"/>
+      <c r="H543" s="14"/>
     </row>
     <row r="544">
-      <c r="H544" s="9"/>
+      <c r="B544" s="11"/>
+      <c r="H544" s="14"/>
     </row>
     <row r="545">
-      <c r="H545" s="9"/>
+      <c r="B545" s="11"/>
+      <c r="H545" s="14"/>
     </row>
     <row r="546">
-      <c r="H546" s="9"/>
+      <c r="B546" s="11"/>
+      <c r="H546" s="14"/>
     </row>
     <row r="547">
-      <c r="H547" s="9"/>
+      <c r="B547" s="11"/>
+      <c r="H547" s="14"/>
     </row>
     <row r="548">
-      <c r="H548" s="9"/>
+      <c r="B548" s="11"/>
+      <c r="H548" s="14"/>
     </row>
     <row r="549">
-      <c r="H549" s="9"/>
+      <c r="B549" s="11"/>
+      <c r="H549" s="14"/>
     </row>
     <row r="550">
-      <c r="H550" s="9"/>
+      <c r="B550" s="11"/>
+      <c r="H550" s="14"/>
     </row>
     <row r="551">
-      <c r="H551" s="9"/>
+      <c r="B551" s="11"/>
+      <c r="H551" s="14"/>
     </row>
     <row r="552">
-      <c r="H552" s="9"/>
+      <c r="B552" s="11"/>
+      <c r="H552" s="14"/>
     </row>
     <row r="553">
-      <c r="H553" s="9"/>
+      <c r="B553" s="11"/>
+      <c r="H553" s="14"/>
     </row>
     <row r="554">
-      <c r="H554" s="9"/>
+      <c r="B554" s="11"/>
+      <c r="H554" s="14"/>
     </row>
     <row r="555">
-      <c r="H555" s="9"/>
+      <c r="B555" s="11"/>
+      <c r="H555" s="14"/>
     </row>
     <row r="556">
-      <c r="H556" s="9"/>
+      <c r="B556" s="11"/>
+      <c r="H556" s="14"/>
     </row>
     <row r="557">
-      <c r="H557" s="9"/>
+      <c r="B557" s="11"/>
+      <c r="H557" s="14"/>
     </row>
     <row r="558">
-      <c r="H558" s="9"/>
+      <c r="B558" s="11"/>
+      <c r="H558" s="14"/>
     </row>
     <row r="559">
-      <c r="H559" s="9"/>
+      <c r="B559" s="11"/>
+      <c r="H559" s="14"/>
     </row>
     <row r="560">
-      <c r="H560" s="9"/>
+      <c r="B560" s="11"/>
+      <c r="H560" s="14"/>
     </row>
     <row r="561">
-      <c r="H561" s="9"/>
+      <c r="B561" s="11"/>
+      <c r="H561" s="14"/>
     </row>
     <row r="562">
-      <c r="H562" s="9"/>
+      <c r="B562" s="11"/>
+      <c r="H562" s="14"/>
     </row>
     <row r="563">
-      <c r="H563" s="9"/>
+      <c r="B563" s="11"/>
+      <c r="H563" s="14"/>
     </row>
     <row r="564">
-      <c r="H564" s="9"/>
+      <c r="B564" s="11"/>
+      <c r="H564" s="14"/>
     </row>
     <row r="565">
-      <c r="H565" s="9"/>
+      <c r="B565" s="11"/>
+      <c r="H565" s="14"/>
     </row>
     <row r="566">
-      <c r="H566" s="9"/>
+      <c r="B566" s="11"/>
+      <c r="H566" s="14"/>
     </row>
     <row r="567">
-      <c r="H567" s="9"/>
+      <c r="B567" s="11"/>
+      <c r="H567" s="14"/>
     </row>
     <row r="568">
-      <c r="H568" s="9"/>
+      <c r="B568" s="11"/>
+      <c r="H568" s="14"/>
     </row>
     <row r="569">
-      <c r="H569" s="9"/>
+      <c r="B569" s="11"/>
+      <c r="H569" s="14"/>
     </row>
     <row r="570">
-      <c r="H570" s="9"/>
+      <c r="B570" s="11"/>
+      <c r="H570" s="14"/>
     </row>
     <row r="571">
-      <c r="H571" s="9"/>
+      <c r="B571" s="11"/>
+      <c r="H571" s="14"/>
     </row>
     <row r="572">
-      <c r="H572" s="9"/>
+      <c r="B572" s="11"/>
+      <c r="H572" s="14"/>
     </row>
     <row r="573">
-      <c r="H573" s="9"/>
+      <c r="B573" s="11"/>
+      <c r="H573" s="14"/>
     </row>
     <row r="574">
-      <c r="H574" s="9"/>
+      <c r="B574" s="11"/>
+      <c r="H574" s="14"/>
     </row>
     <row r="575">
-      <c r="H575" s="9"/>
+      <c r="B575" s="11"/>
+      <c r="H575" s="14"/>
     </row>
     <row r="576">
-      <c r="H576" s="9"/>
+      <c r="B576" s="11"/>
+      <c r="H576" s="14"/>
     </row>
     <row r="577">
-      <c r="H577" s="9"/>
+      <c r="B577" s="11"/>
+      <c r="H577" s="14"/>
     </row>
     <row r="578">
-      <c r="H578" s="9"/>
+      <c r="B578" s="11"/>
+      <c r="H578" s="14"/>
     </row>
     <row r="579">
-      <c r="H579" s="9"/>
+      <c r="B579" s="11"/>
+      <c r="H579" s="14"/>
     </row>
     <row r="580">
-      <c r="H580" s="9"/>
+      <c r="B580" s="11"/>
+      <c r="H580" s="14"/>
     </row>
     <row r="581">
-      <c r="H581" s="9"/>
+      <c r="B581" s="11"/>
+      <c r="H581" s="14"/>
     </row>
     <row r="582">
-      <c r="H582" s="9"/>
+      <c r="B582" s="11"/>
+      <c r="H582" s="14"/>
     </row>
     <row r="583">
-      <c r="H583" s="9"/>
+      <c r="B583" s="11"/>
+      <c r="H583" s="14"/>
     </row>
     <row r="584">
-      <c r="H584" s="9"/>
+      <c r="B584" s="11"/>
+      <c r="H584" s="14"/>
     </row>
     <row r="585">
-      <c r="H585" s="9"/>
+      <c r="B585" s="11"/>
+      <c r="H585" s="14"/>
     </row>
     <row r="586">
-      <c r="H586" s="9"/>
+      <c r="B586" s="11"/>
+      <c r="H586" s="14"/>
     </row>
     <row r="587">
-      <c r="H587" s="9"/>
+      <c r="B587" s="11"/>
+      <c r="H587" s="14"/>
     </row>
     <row r="588">
-      <c r="H588" s="9"/>
+      <c r="B588" s="11"/>
+      <c r="H588" s="14"/>
     </row>
     <row r="589">
-      <c r="H589" s="9"/>
+      <c r="B589" s="11"/>
+      <c r="H589" s="14"/>
     </row>
     <row r="590">
-      <c r="H590" s="9"/>
+      <c r="B590" s="11"/>
+      <c r="H590" s="14"/>
     </row>
     <row r="591">
-      <c r="H591" s="9"/>
+      <c r="B591" s="11"/>
+      <c r="H591" s="14"/>
     </row>
     <row r="592">
-      <c r="H592" s="9"/>
+      <c r="B592" s="11"/>
+      <c r="H592" s="14"/>
     </row>
     <row r="593">
-      <c r="H593" s="9"/>
+      <c r="B593" s="11"/>
+      <c r="H593" s="14"/>
     </row>
     <row r="594">
-      <c r="H594" s="9"/>
+      <c r="B594" s="11"/>
+      <c r="H594" s="14"/>
     </row>
     <row r="595">
-      <c r="H595" s="9"/>
+      <c r="B595" s="11"/>
+      <c r="H595" s="14"/>
     </row>
     <row r="596">
-      <c r="H596" s="9"/>
+      <c r="B596" s="11"/>
+      <c r="H596" s="14"/>
     </row>
     <row r="597">
-      <c r="H597" s="9"/>
+      <c r="B597" s="11"/>
+      <c r="H597" s="14"/>
     </row>
     <row r="598">
-      <c r="H598" s="9"/>
+      <c r="B598" s="11"/>
+      <c r="H598" s="14"/>
     </row>
     <row r="599">
-      <c r="H599" s="9"/>
+      <c r="B599" s="11"/>
+      <c r="H599" s="14"/>
     </row>
     <row r="600">
-      <c r="H600" s="9"/>
+      <c r="B600" s="11"/>
+      <c r="H600" s="14"/>
     </row>
     <row r="601">
-      <c r="H601" s="9"/>
+      <c r="B601" s="11"/>
+      <c r="H601" s="14"/>
     </row>
     <row r="602">
-      <c r="H602" s="9"/>
+      <c r="B602" s="11"/>
+      <c r="H602" s="14"/>
     </row>
     <row r="603">
-      <c r="H603" s="9"/>
+      <c r="B603" s="11"/>
+      <c r="H603" s="14"/>
     </row>
     <row r="604">
-      <c r="H604" s="9"/>
+      <c r="B604" s="11"/>
+      <c r="H604" s="14"/>
     </row>
     <row r="605">
-      <c r="H605" s="9"/>
+      <c r="B605" s="11"/>
+      <c r="H605" s="14"/>
     </row>
     <row r="606">
-      <c r="H606" s="9"/>
+      <c r="B606" s="11"/>
+      <c r="H606" s="14"/>
     </row>
     <row r="607">
-      <c r="H607" s="9"/>
+      <c r="B607" s="11"/>
+      <c r="H607" s="14"/>
     </row>
     <row r="608">
-      <c r="H608" s="9"/>
+      <c r="B608" s="11"/>
+      <c r="H608" s="14"/>
     </row>
     <row r="609">
-      <c r="H609" s="9"/>
+      <c r="B609" s="11"/>
+      <c r="H609" s="14"/>
     </row>
     <row r="610">
-      <c r="H610" s="9"/>
+      <c r="B610" s="11"/>
+      <c r="H610" s="14"/>
     </row>
     <row r="611">
-      <c r="H611" s="9"/>
+      <c r="B611" s="11"/>
+      <c r="H611" s="14"/>
     </row>
     <row r="612">
-      <c r="H612" s="9"/>
+      <c r="B612" s="11"/>
+      <c r="H612" s="14"/>
     </row>
     <row r="613">
-      <c r="H613" s="9"/>
+      <c r="B613" s="11"/>
+      <c r="H613" s="14"/>
     </row>
     <row r="614">
-      <c r="H614" s="9"/>
+      <c r="B614" s="11"/>
+      <c r="H614" s="14"/>
     </row>
     <row r="615">
-      <c r="H615" s="9"/>
+      <c r="B615" s="11"/>
+      <c r="H615" s="14"/>
     </row>
     <row r="616">
-      <c r="H616" s="9"/>
+      <c r="B616" s="11"/>
+      <c r="H616" s="14"/>
     </row>
     <row r="617">
-      <c r="H617" s="9"/>
+      <c r="B617" s="11"/>
+      <c r="H617" s="14"/>
     </row>
     <row r="618">
-      <c r="H618" s="9"/>
+      <c r="B618" s="11"/>
+      <c r="H618" s="14"/>
     </row>
     <row r="619">
-      <c r="H619" s="9"/>
+      <c r="B619" s="11"/>
+      <c r="H619" s="14"/>
     </row>
     <row r="620">
-      <c r="H620" s="9"/>
+      <c r="B620" s="11"/>
+      <c r="H620" s="14"/>
     </row>
     <row r="621">
-      <c r="H621" s="9"/>
+      <c r="B621" s="11"/>
+      <c r="H621" s="14"/>
     </row>
     <row r="622">
-      <c r="H622" s="9"/>
+      <c r="B622" s="11"/>
+      <c r="H622" s="14"/>
     </row>
     <row r="623">
-      <c r="H623" s="9"/>
+      <c r="B623" s="11"/>
+      <c r="H623" s="14"/>
     </row>
     <row r="624">
-      <c r="H624" s="9"/>
+      <c r="B624" s="11"/>
+      <c r="H624" s="14"/>
     </row>
     <row r="625">
-      <c r="H625" s="9"/>
+      <c r="B625" s="11"/>
+      <c r="H625" s="14"/>
     </row>
     <row r="626">
-      <c r="H626" s="9"/>
+      <c r="B626" s="11"/>
+      <c r="H626" s="14"/>
     </row>
     <row r="627">
-      <c r="H627" s="9"/>
+      <c r="B627" s="11"/>
+      <c r="H627" s="14"/>
     </row>
     <row r="628">
-      <c r="H628" s="9"/>
+      <c r="B628" s="11"/>
+      <c r="H628" s="14"/>
     </row>
     <row r="629">
-      <c r="H629" s="9"/>
+      <c r="B629" s="11"/>
+      <c r="H629" s="14"/>
     </row>
     <row r="630">
-      <c r="H630" s="9"/>
+      <c r="B630" s="11"/>
+      <c r="H630" s="14"/>
     </row>
     <row r="631">
-      <c r="H631" s="9"/>
+      <c r="B631" s="11"/>
+      <c r="H631" s="14"/>
     </row>
     <row r="632">
-      <c r="H632" s="9"/>
+      <c r="B632" s="11"/>
+      <c r="H632" s="14"/>
     </row>
     <row r="633">
-      <c r="H633" s="9"/>
+      <c r="B633" s="11"/>
+      <c r="H633" s="14"/>
     </row>
     <row r="634">
-      <c r="H634" s="9"/>
+      <c r="B634" s="11"/>
+      <c r="H634" s="14"/>
     </row>
     <row r="635">
-      <c r="H635" s="9"/>
+      <c r="B635" s="11"/>
+      <c r="H635" s="14"/>
     </row>
     <row r="636">
-      <c r="H636" s="9"/>
+      <c r="B636" s="11"/>
+      <c r="H636" s="14"/>
     </row>
     <row r="637">
-      <c r="H637" s="9"/>
+      <c r="B637" s="11"/>
+      <c r="H637" s="14"/>
     </row>
     <row r="638">
-      <c r="H638" s="9"/>
+      <c r="B638" s="11"/>
+      <c r="H638" s="14"/>
     </row>
     <row r="639">
-      <c r="H639" s="9"/>
+      <c r="B639" s="11"/>
+      <c r="H639" s="14"/>
     </row>
     <row r="640">
-      <c r="H640" s="9"/>
+      <c r="B640" s="11"/>
+      <c r="H640" s="14"/>
     </row>
     <row r="641">
-      <c r="H641" s="9"/>
+      <c r="B641" s="11"/>
+      <c r="H641" s="14"/>
     </row>
     <row r="642">
-      <c r="H642" s="9"/>
+      <c r="B642" s="11"/>
+      <c r="H642" s="14"/>
     </row>
     <row r="643">
-      <c r="H643" s="9"/>
+      <c r="B643" s="11"/>
+      <c r="H643" s="14"/>
     </row>
     <row r="644">
-      <c r="H644" s="9"/>
+      <c r="B644" s="11"/>
+      <c r="H644" s="14"/>
     </row>
     <row r="645">
-      <c r="H645" s="9"/>
+      <c r="B645" s="11"/>
+      <c r="H645" s="14"/>
     </row>
     <row r="646">
-      <c r="H646" s="9"/>
+      <c r="B646" s="11"/>
+      <c r="H646" s="14"/>
     </row>
     <row r="647">
-      <c r="H647" s="9"/>
+      <c r="B647" s="11"/>
+      <c r="H647" s="14"/>
     </row>
     <row r="648">
-      <c r="H648" s="9"/>
+      <c r="B648" s="11"/>
+      <c r="H648" s="14"/>
     </row>
     <row r="649">
-      <c r="H649" s="9"/>
+      <c r="B649" s="11"/>
+      <c r="H649" s="14"/>
     </row>
     <row r="650">
-      <c r="H650" s="9"/>
+      <c r="B650" s="11"/>
+      <c r="H650" s="14"/>
     </row>
     <row r="651">
-      <c r="H651" s="9"/>
+      <c r="B651" s="11"/>
+      <c r="H651" s="14"/>
     </row>
     <row r="652">
-      <c r="H652" s="9"/>
+      <c r="B652" s="11"/>
+      <c r="H652" s="14"/>
     </row>
     <row r="653">
-      <c r="H653" s="9"/>
+      <c r="B653" s="11"/>
+      <c r="H653" s="14"/>
     </row>
     <row r="654">
-      <c r="H654" s="9"/>
+      <c r="B654" s="11"/>
+      <c r="H654" s="14"/>
     </row>
     <row r="655">
-      <c r="H655" s="9"/>
+      <c r="B655" s="11"/>
+      <c r="H655" s="14"/>
     </row>
     <row r="656">
-      <c r="H656" s="9"/>
+      <c r="B656" s="11"/>
+      <c r="H656" s="14"/>
     </row>
     <row r="657">
-      <c r="H657" s="9"/>
+      <c r="B657" s="11"/>
+      <c r="H657" s="14"/>
     </row>
     <row r="658">
-      <c r="H658" s="9"/>
+      <c r="B658" s="11"/>
+      <c r="H658" s="14"/>
     </row>
     <row r="659">
-      <c r="H659" s="9"/>
+      <c r="B659" s="11"/>
+      <c r="H659" s="14"/>
     </row>
     <row r="660">
-      <c r="H660" s="9"/>
+      <c r="B660" s="11"/>
+      <c r="H660" s="14"/>
     </row>
     <row r="661">
-      <c r="H661" s="9"/>
+      <c r="B661" s="11"/>
+      <c r="H661" s="14"/>
     </row>
     <row r="662">
-      <c r="H662" s="9"/>
+      <c r="B662" s="11"/>
+      <c r="H662" s="14"/>
     </row>
     <row r="663">
-      <c r="H663" s="9"/>
+      <c r="B663" s="11"/>
+      <c r="H663" s="14"/>
     </row>
     <row r="664">
-      <c r="H664" s="9"/>
+      <c r="B664" s="11"/>
+      <c r="H664" s="14"/>
     </row>
     <row r="665">
-      <c r="H665" s="9"/>
+      <c r="B665" s="11"/>
+      <c r="H665" s="14"/>
     </row>
     <row r="666">
-      <c r="H666" s="9"/>
+      <c r="B666" s="11"/>
+      <c r="H666" s="14"/>
     </row>
     <row r="667">
-      <c r="H667" s="9"/>
+      <c r="B667" s="11"/>
+      <c r="H667" s="14"/>
     </row>
     <row r="668">
-      <c r="H668" s="9"/>
+      <c r="B668" s="11"/>
+      <c r="H668" s="14"/>
     </row>
     <row r="669">
-      <c r="H669" s="9"/>
+      <c r="B669" s="11"/>
+      <c r="H669" s="14"/>
     </row>
     <row r="670">
-      <c r="H670" s="9"/>
+      <c r="B670" s="11"/>
+      <c r="H670" s="14"/>
     </row>
     <row r="671">
-      <c r="H671" s="9"/>
+      <c r="B671" s="11"/>
+      <c r="H671" s="14"/>
     </row>
     <row r="672">
-      <c r="H672" s="9"/>
+      <c r="B672" s="11"/>
+      <c r="H672" s="14"/>
     </row>
     <row r="673">
-      <c r="H673" s="9"/>
+      <c r="B673" s="11"/>
+      <c r="H673" s="14"/>
     </row>
     <row r="674">
-      <c r="H674" s="9"/>
+      <c r="B674" s="11"/>
+      <c r="H674" s="14"/>
     </row>
     <row r="675">
-      <c r="H675" s="9"/>
+      <c r="B675" s="11"/>
+      <c r="H675" s="14"/>
     </row>
     <row r="676">
-      <c r="H676" s="9"/>
+      <c r="B676" s="11"/>
+      <c r="H676" s="14"/>
     </row>
     <row r="677">
-      <c r="H677" s="9"/>
+      <c r="B677" s="11"/>
+      <c r="H677" s="14"/>
     </row>
     <row r="678">
-      <c r="H678" s="9"/>
+      <c r="B678" s="11"/>
+      <c r="H678" s="14"/>
     </row>
     <row r="679">
-      <c r="H679" s="9"/>
+      <c r="B679" s="11"/>
+      <c r="H679" s="14"/>
     </row>
     <row r="680">
-      <c r="H680" s="9"/>
+      <c r="B680" s="11"/>
+      <c r="H680" s="14"/>
     </row>
     <row r="681">
-      <c r="H681" s="9"/>
+      <c r="B681" s="11"/>
+      <c r="H681" s="14"/>
     </row>
     <row r="682">
-      <c r="H682" s="9"/>
+      <c r="B682" s="11"/>
+      <c r="H682" s="14"/>
     </row>
     <row r="683">
-      <c r="H683" s="9"/>
+      <c r="B683" s="11"/>
+      <c r="H683" s="14"/>
     </row>
     <row r="684">
-      <c r="H684" s="9"/>
+      <c r="B684" s="11"/>
+      <c r="H684" s="14"/>
     </row>
     <row r="685">
-      <c r="H685" s="9"/>
+      <c r="B685" s="11"/>
+      <c r="H685" s="14"/>
     </row>
     <row r="686">
-      <c r="H686" s="9"/>
+      <c r="B686" s="11"/>
+      <c r="H686" s="14"/>
     </row>
     <row r="687">
-      <c r="H687" s="9"/>
+      <c r="B687" s="11"/>
+      <c r="H687" s="14"/>
     </row>
     <row r="688">
-      <c r="H688" s="9"/>
+      <c r="B688" s="11"/>
+      <c r="H688" s="14"/>
     </row>
     <row r="689">
-      <c r="H689" s="9"/>
+      <c r="B689" s="11"/>
+      <c r="H689" s="14"/>
     </row>
     <row r="690">
-      <c r="H690" s="9"/>
+      <c r="B690" s="11"/>
+      <c r="H690" s="14"/>
     </row>
     <row r="691">
-      <c r="H691" s="9"/>
+      <c r="B691" s="11"/>
+      <c r="H691" s="14"/>
     </row>
     <row r="692">
-      <c r="H692" s="9"/>
+      <c r="B692" s="11"/>
+      <c r="H692" s="14"/>
     </row>
     <row r="693">
-      <c r="H693" s="9"/>
+      <c r="B693" s="11"/>
+      <c r="H693" s="14"/>
     </row>
     <row r="694">
-      <c r="H694" s="9"/>
+      <c r="B694" s="11"/>
+      <c r="H694" s="14"/>
     </row>
     <row r="695">
-      <c r="H695" s="9"/>
+      <c r="B695" s="11"/>
+      <c r="H695" s="14"/>
     </row>
     <row r="696">
-      <c r="H696" s="9"/>
+      <c r="B696" s="11"/>
+      <c r="H696" s="14"/>
     </row>
     <row r="697">
-      <c r="H697" s="9"/>
+      <c r="B697" s="11"/>
+      <c r="H697" s="14"/>
     </row>
     <row r="698">
-      <c r="H698" s="9"/>
+      <c r="B698" s="11"/>
+      <c r="H698" s="14"/>
     </row>
     <row r="699">
-      <c r="H699" s="9"/>
+      <c r="B699" s="11"/>
+      <c r="H699" s="14"/>
     </row>
     <row r="700">
-      <c r="H700" s="9"/>
+      <c r="B700" s="11"/>
+      <c r="H700" s="14"/>
     </row>
     <row r="701">
-      <c r="H701" s="9"/>
+      <c r="B701" s="11"/>
+      <c r="H701" s="14"/>
     </row>
     <row r="702">
-      <c r="H702" s="9"/>
+      <c r="B702" s="11"/>
+      <c r="H702" s="14"/>
     </row>
     <row r="703">
-      <c r="H703" s="9"/>
+      <c r="B703" s="11"/>
+      <c r="H703" s="14"/>
     </row>
     <row r="704">
-      <c r="H704" s="9"/>
+      <c r="B704" s="11"/>
+      <c r="H704" s="14"/>
     </row>
     <row r="705">
-      <c r="H705" s="9"/>
+      <c r="B705" s="11"/>
+      <c r="H705" s="14"/>
     </row>
     <row r="706">
-      <c r="H706" s="9"/>
+      <c r="B706" s="11"/>
+      <c r="H706" s="14"/>
     </row>
     <row r="707">
-      <c r="H707" s="9"/>
+      <c r="B707" s="11"/>
+      <c r="H707" s="14"/>
     </row>
     <row r="708">
-      <c r="H708" s="9"/>
+      <c r="B708" s="11"/>
+      <c r="H708" s="14"/>
     </row>
     <row r="709">
-      <c r="H709" s="9"/>
+      <c r="B709" s="11"/>
+      <c r="H709" s="14"/>
     </row>
     <row r="710">
-      <c r="H710" s="9"/>
+      <c r="B710" s="11"/>
+      <c r="H710" s="14"/>
     </row>
     <row r="711">
-      <c r="H711" s="9"/>
+      <c r="B711" s="11"/>
+      <c r="H711" s="14"/>
     </row>
     <row r="712">
-      <c r="H712" s="9"/>
+      <c r="B712" s="11"/>
+      <c r="H712" s="14"/>
     </row>
     <row r="713">
-      <c r="H713" s="9"/>
+      <c r="B713" s="11"/>
+      <c r="H713" s="14"/>
     </row>
     <row r="714">
-      <c r="H714" s="9"/>
+      <c r="B714" s="11"/>
+      <c r="H714" s="14"/>
     </row>
     <row r="715">
-      <c r="H715" s="9"/>
+      <c r="B715" s="11"/>
+      <c r="H715" s="14"/>
     </row>
     <row r="716">
-      <c r="H716" s="9"/>
+      <c r="B716" s="11"/>
+      <c r="H716" s="14"/>
     </row>
     <row r="717">
-      <c r="H717" s="9"/>
+      <c r="B717" s="11"/>
+      <c r="H717" s="14"/>
     </row>
     <row r="718">
-      <c r="H718" s="9"/>
+      <c r="B718" s="11"/>
+      <c r="H718" s="14"/>
     </row>
     <row r="719">
-      <c r="H719" s="9"/>
+      <c r="B719" s="11"/>
+      <c r="H719" s="14"/>
     </row>
     <row r="720">
-      <c r="H720" s="9"/>
+      <c r="B720" s="11"/>
+      <c r="H720" s="14"/>
     </row>
     <row r="721">
-      <c r="H721" s="9"/>
+      <c r="B721" s="11"/>
+      <c r="H721" s="14"/>
     </row>
     <row r="722">
-      <c r="H722" s="9"/>
+      <c r="B722" s="11"/>
+      <c r="H722" s="14"/>
     </row>
     <row r="723">
-      <c r="H723" s="9"/>
+      <c r="B723" s="11"/>
+      <c r="H723" s="14"/>
     </row>
     <row r="724">
-      <c r="H724" s="9"/>
+      <c r="B724" s="11"/>
+      <c r="H724" s="14"/>
     </row>
     <row r="725">
-      <c r="H725" s="9"/>
+      <c r="B725" s="11"/>
+      <c r="H725" s="14"/>
     </row>
     <row r="726">
-      <c r="H726" s="9"/>
+      <c r="B726" s="11"/>
+      <c r="H726" s="14"/>
     </row>
     <row r="727">
-      <c r="H727" s="9"/>
+      <c r="B727" s="11"/>
+      <c r="H727" s="14"/>
     </row>
     <row r="728">
-      <c r="H728" s="9"/>
+      <c r="B728" s="11"/>
+      <c r="H728" s="14"/>
     </row>
     <row r="729">
-      <c r="H729" s="9"/>
+      <c r="B729" s="11"/>
+      <c r="H729" s="14"/>
     </row>
     <row r="730">
-      <c r="H730" s="9"/>
+      <c r="B730" s="11"/>
+      <c r="H730" s="14"/>
     </row>
     <row r="731">
-      <c r="H731" s="9"/>
+      <c r="B731" s="11"/>
+      <c r="H731" s="14"/>
     </row>
     <row r="732">
-      <c r="H732" s="9"/>
+      <c r="B732" s="11"/>
+      <c r="H732" s="14"/>
     </row>
     <row r="733">
-      <c r="H733" s="9"/>
+      <c r="B733" s="11"/>
+      <c r="H733" s="14"/>
     </row>
     <row r="734">
-      <c r="H734" s="9"/>
+      <c r="B734" s="11"/>
+      <c r="H734" s="14"/>
     </row>
     <row r="735">
-      <c r="H735" s="9"/>
+      <c r="B735" s="11"/>
+      <c r="H735" s="14"/>
     </row>
     <row r="736">
-      <c r="H736" s="9"/>
+      <c r="B736" s="11"/>
+      <c r="H736" s="14"/>
     </row>
     <row r="737">
-      <c r="H737" s="9"/>
+      <c r="B737" s="11"/>
+      <c r="H737" s="14"/>
     </row>
     <row r="738">
-      <c r="H738" s="9"/>
+      <c r="B738" s="11"/>
+      <c r="H738" s="14"/>
     </row>
     <row r="739">
-      <c r="H739" s="9"/>
+      <c r="B739" s="11"/>
+      <c r="H739" s="14"/>
     </row>
     <row r="740">
-      <c r="H740" s="9"/>
+      <c r="B740" s="11"/>
+      <c r="H740" s="14"/>
     </row>
     <row r="741">
-      <c r="H741" s="9"/>
+      <c r="B741" s="11"/>
+      <c r="H741" s="14"/>
     </row>
     <row r="742">
-      <c r="H742" s="9"/>
+      <c r="B742" s="11"/>
+      <c r="H742" s="14"/>
     </row>
     <row r="743">
-      <c r="H743" s="9"/>
+      <c r="B743" s="11"/>
+      <c r="H743" s="14"/>
     </row>
     <row r="744">
-      <c r="H744" s="9"/>
+      <c r="B744" s="11"/>
+      <c r="H744" s="14"/>
     </row>
     <row r="745">
-      <c r="H745" s="9"/>
+      <c r="B745" s="11"/>
+      <c r="H745" s="14"/>
     </row>
     <row r="746">
-      <c r="H746" s="9"/>
+      <c r="B746" s="11"/>
+      <c r="H746" s="14"/>
     </row>
     <row r="747">
-      <c r="H747" s="9"/>
+      <c r="B747" s="11"/>
+      <c r="H747" s="14"/>
     </row>
     <row r="748">
-      <c r="H748" s="9"/>
+      <c r="B748" s="11"/>
+      <c r="H748" s="14"/>
     </row>
     <row r="749">
-      <c r="H749" s="9"/>
+      <c r="B749" s="11"/>
+      <c r="H749" s="14"/>
     </row>
     <row r="750">
-      <c r="H750" s="9"/>
+      <c r="B750" s="11"/>
+      <c r="H750" s="14"/>
     </row>
     <row r="751">
-      <c r="H751" s="9"/>
+      <c r="B751" s="11"/>
+      <c r="H751" s="14"/>
     </row>
     <row r="752">
-      <c r="H752" s="9"/>
+      <c r="B752" s="11"/>
+      <c r="H752" s="14"/>
     </row>
     <row r="753">
-      <c r="H753" s="9"/>
+      <c r="B753" s="11"/>
+      <c r="H753" s="14"/>
     </row>
     <row r="754">
-      <c r="H754" s="9"/>
+      <c r="B754" s="11"/>
+      <c r="H754" s="14"/>
     </row>
     <row r="755">
-      <c r="H755" s="9"/>
+      <c r="B755" s="11"/>
+      <c r="H755" s="14"/>
     </row>
     <row r="756">
-      <c r="H756" s="9"/>
+      <c r="B756" s="11"/>
+      <c r="H756" s="14"/>
     </row>
     <row r="757">
-      <c r="H757" s="9"/>
+      <c r="B757" s="11"/>
+      <c r="H757" s="14"/>
     </row>
     <row r="758">
-      <c r="H758" s="9"/>
+      <c r="B758" s="11"/>
+      <c r="H758" s="14"/>
     </row>
     <row r="759">
-      <c r="H759" s="9"/>
+      <c r="B759" s="11"/>
+      <c r="H759" s="14"/>
     </row>
     <row r="760">
-      <c r="H760" s="9"/>
+      <c r="B760" s="11"/>
+      <c r="H760" s="14"/>
     </row>
     <row r="761">
-      <c r="H761" s="9"/>
+      <c r="B761" s="11"/>
+      <c r="H761" s="14"/>
     </row>
     <row r="762">
-      <c r="H762" s="9"/>
+      <c r="B762" s="11"/>
+      <c r="H762" s="14"/>
     </row>
     <row r="763">
-      <c r="H763" s="9"/>
+      <c r="B763" s="11"/>
+      <c r="H763" s="14"/>
     </row>
     <row r="764">
-      <c r="H764" s="9"/>
+      <c r="B764" s="11"/>
+      <c r="H764" s="14"/>
     </row>
     <row r="765">
-      <c r="H765" s="9"/>
+      <c r="B765" s="11"/>
+      <c r="H765" s="14"/>
     </row>
     <row r="766">
-      <c r="H766" s="9"/>
+      <c r="B766" s="11"/>
+      <c r="H766" s="14"/>
     </row>
     <row r="767">
-      <c r="H767" s="9"/>
+      <c r="B767" s="11"/>
+      <c r="H767" s="14"/>
     </row>
     <row r="768">
-      <c r="H768" s="9"/>
+      <c r="B768" s="11"/>
+      <c r="H768" s="14"/>
     </row>
     <row r="769">
-      <c r="H769" s="9"/>
+      <c r="B769" s="11"/>
+      <c r="H769" s="14"/>
     </row>
     <row r="770">
-      <c r="H770" s="9"/>
+      <c r="B770" s="11"/>
+      <c r="H770" s="14"/>
     </row>
     <row r="771">
-      <c r="H771" s="9"/>
+      <c r="B771" s="11"/>
+      <c r="H771" s="14"/>
     </row>
     <row r="772">
-      <c r="H772" s="9"/>
+      <c r="B772" s="11"/>
+      <c r="H772" s="14"/>
     </row>
     <row r="773">
-      <c r="H773" s="9"/>
+      <c r="B773" s="11"/>
+      <c r="H773" s="14"/>
     </row>
     <row r="774">
-      <c r="H774" s="9"/>
+      <c r="B774" s="11"/>
+      <c r="H774" s="14"/>
     </row>
     <row r="775">
-      <c r="H775" s="9"/>
+      <c r="B775" s="11"/>
+      <c r="H775" s="14"/>
     </row>
     <row r="776">
-      <c r="H776" s="9"/>
+      <c r="B776" s="11"/>
+      <c r="H776" s="14"/>
     </row>
     <row r="777">
-      <c r="H777" s="9"/>
+      <c r="B777" s="11"/>
+      <c r="H777" s="14"/>
     </row>
     <row r="778">
-      <c r="H778" s="9"/>
+      <c r="B778" s="11"/>
+      <c r="H778" s="14"/>
     </row>
     <row r="779">
-      <c r="H779" s="9"/>
+      <c r="B779" s="11"/>
+      <c r="H779" s="14"/>
     </row>
     <row r="780">
-      <c r="H780" s="9"/>
+      <c r="B780" s="11"/>
+      <c r="H780" s="14"/>
     </row>
     <row r="781">
-      <c r="H781" s="9"/>
+      <c r="B781" s="11"/>
+      <c r="H781" s="14"/>
     </row>
     <row r="782">
-      <c r="H782" s="9"/>
+      <c r="B782" s="11"/>
+      <c r="H782" s="14"/>
     </row>
     <row r="783">
-      <c r="H783" s="9"/>
+      <c r="B783" s="11"/>
+      <c r="H783" s="14"/>
     </row>
     <row r="784">
-      <c r="H784" s="9"/>
+      <c r="B784" s="11"/>
+      <c r="H784" s="14"/>
     </row>
     <row r="785">
-      <c r="H785" s="9"/>
+      <c r="B785" s="11"/>
+      <c r="H785" s="14"/>
     </row>
     <row r="786">
-      <c r="H786" s="9"/>
+      <c r="B786" s="11"/>
+      <c r="H786" s="14"/>
     </row>
     <row r="787">
-      <c r="H787" s="9"/>
+      <c r="B787" s="11"/>
+      <c r="H787" s="14"/>
     </row>
     <row r="788">
-      <c r="H788" s="9"/>
+      <c r="B788" s="11"/>
+      <c r="H788" s="14"/>
     </row>
     <row r="789">
-      <c r="H789" s="9"/>
+      <c r="B789" s="11"/>
+      <c r="H789" s="14"/>
     </row>
     <row r="790">
-      <c r="H790" s="9"/>
+      <c r="B790" s="11"/>
+      <c r="H790" s="14"/>
     </row>
     <row r="791">
-      <c r="H791" s="9"/>
+      <c r="B791" s="11"/>
+      <c r="H791" s="14"/>
     </row>
     <row r="792">
-      <c r="H792" s="9"/>
+      <c r="B792" s="11"/>
+      <c r="H792" s="14"/>
     </row>
     <row r="793">
-      <c r="H793" s="9"/>
+      <c r="B793" s="11"/>
+      <c r="H793" s="14"/>
     </row>
     <row r="794">
-      <c r="H794" s="9"/>
+      <c r="B794" s="11"/>
+      <c r="H794" s="14"/>
     </row>
     <row r="795">
-      <c r="H795" s="9"/>
+      <c r="B795" s="11"/>
+      <c r="H795" s="14"/>
     </row>
     <row r="796">
-      <c r="H796" s="9"/>
+      <c r="B796" s="11"/>
+      <c r="H796" s="14"/>
     </row>
     <row r="797">
-      <c r="H797" s="9"/>
+      <c r="B797" s="11"/>
+      <c r="H797" s="14"/>
     </row>
     <row r="798">
-      <c r="H798" s="9"/>
+      <c r="B798" s="11"/>
+      <c r="H798" s="14"/>
     </row>
     <row r="799">
-      <c r="H799" s="9"/>
+      <c r="B799" s="11"/>
+      <c r="H799" s="14"/>
     </row>
     <row r="800">
-      <c r="H800" s="9"/>
+      <c r="B800" s="11"/>
+      <c r="H800" s="14"/>
     </row>
     <row r="801">
-      <c r="H801" s="9"/>
+      <c r="B801" s="11"/>
+      <c r="H801" s="14"/>
     </row>
     <row r="802">
-      <c r="H802" s="9"/>
+      <c r="B802" s="11"/>
+      <c r="H802" s="14"/>
     </row>
     <row r="803">
-      <c r="H803" s="9"/>
+      <c r="B803" s="11"/>
+      <c r="H803" s="14"/>
     </row>
     <row r="804">
-      <c r="H804" s="9"/>
+      <c r="B804" s="11"/>
+      <c r="H804" s="14"/>
     </row>
     <row r="805">
-      <c r="H805" s="9"/>
+      <c r="B805" s="11"/>
+      <c r="H805" s="14"/>
     </row>
     <row r="806">
-      <c r="H806" s="9"/>
+      <c r="B806" s="11"/>
+      <c r="H806" s="14"/>
     </row>
     <row r="807">
-      <c r="H807" s="9"/>
+      <c r="B807" s="11"/>
+      <c r="H807" s="14"/>
     </row>
     <row r="808">
-      <c r="H808" s="9"/>
+      <c r="B808" s="11"/>
+      <c r="H808" s="14"/>
     </row>
     <row r="809">
-      <c r="H809" s="9"/>
+      <c r="B809" s="11"/>
+      <c r="H809" s="14"/>
     </row>
     <row r="810">
-      <c r="H810" s="9"/>
+      <c r="B810" s="11"/>
+      <c r="H810" s="14"/>
     </row>
     <row r="811">
-      <c r="H811" s="9"/>
+      <c r="B811" s="11"/>
+      <c r="H811" s="14"/>
     </row>
     <row r="812">
-      <c r="H812" s="9"/>
+      <c r="B812" s="11"/>
+      <c r="H812" s="14"/>
     </row>
     <row r="813">
-      <c r="H813" s="9"/>
+      <c r="B813" s="11"/>
+      <c r="H813" s="14"/>
     </row>
     <row r="814">
-      <c r="H814" s="9"/>
+      <c r="B814" s="11"/>
+      <c r="H814" s="14"/>
     </row>
     <row r="815">
-      <c r="H815" s="9"/>
+      <c r="B815" s="11"/>
+      <c r="H815" s="14"/>
     </row>
     <row r="816">
-      <c r="H816" s="9"/>
+      <c r="B816" s="11"/>
+      <c r="H816" s="14"/>
     </row>
     <row r="817">
-      <c r="H817" s="9"/>
+      <c r="B817" s="11"/>
+      <c r="H817" s="14"/>
     </row>
     <row r="818">
-      <c r="H818" s="9"/>
+      <c r="B818" s="11"/>
+      <c r="H818" s="14"/>
     </row>
     <row r="819">
-      <c r="H819" s="9"/>
+      <c r="B819" s="11"/>
+      <c r="H819" s="14"/>
     </row>
     <row r="820">
-      <c r="H820" s="9"/>
+      <c r="B820" s="11"/>
+      <c r="H820" s="14"/>
     </row>
     <row r="821">
-      <c r="H821" s="9"/>
+      <c r="B821" s="11"/>
+      <c r="H821" s="14"/>
     </row>
     <row r="822">
-      <c r="H822" s="9"/>
+      <c r="B822" s="11"/>
+      <c r="H822" s="14"/>
     </row>
     <row r="823">
-      <c r="H823" s="9"/>
+      <c r="B823" s="11"/>
+      <c r="H823" s="14"/>
     </row>
     <row r="824">
-      <c r="H824" s="9"/>
+      <c r="B824" s="11"/>
+      <c r="H824" s="14"/>
     </row>
     <row r="825">
-      <c r="H825" s="9"/>
+      <c r="B825" s="11"/>
+      <c r="H825" s="14"/>
     </row>
     <row r="826">
-      <c r="H826" s="9"/>
+      <c r="B826" s="11"/>
+      <c r="H826" s="14"/>
     </row>
     <row r="827">
-      <c r="H827" s="9"/>
+      <c r="B827" s="11"/>
+      <c r="H827" s="14"/>
     </row>
     <row r="828">
-      <c r="H828" s="9"/>
+      <c r="B828" s="11"/>
+      <c r="H828" s="14"/>
     </row>
     <row r="829">
-      <c r="H829" s="9"/>
+      <c r="B829" s="11"/>
+      <c r="H829" s="14"/>
     </row>
     <row r="830">
-      <c r="H830" s="9"/>
+      <c r="B830" s="11"/>
+      <c r="H830" s="14"/>
     </row>
     <row r="831">
-      <c r="H831" s="9"/>
+      <c r="B831" s="11"/>
+      <c r="H831" s="14"/>
     </row>
     <row r="832">
-      <c r="H832" s="9"/>
+      <c r="B832" s="11"/>
+      <c r="H832" s="14"/>
     </row>
     <row r="833">
-      <c r="H833" s="9"/>
+      <c r="B833" s="11"/>
+      <c r="H833" s="14"/>
     </row>
     <row r="834">
-      <c r="H834" s="9"/>
+      <c r="B834" s="11"/>
+      <c r="H834" s="14"/>
     </row>
     <row r="835">
-      <c r="H835" s="9"/>
+      <c r="B835" s="11"/>
+      <c r="H835" s="14"/>
     </row>
     <row r="836">
-      <c r="H836" s="9"/>
+      <c r="B836" s="11"/>
+      <c r="H836" s="14"/>
     </row>
     <row r="837">
-      <c r="H837" s="9"/>
+      <c r="B837" s="11"/>
+      <c r="H837" s="14"/>
     </row>
     <row r="838">
-      <c r="H838" s="9"/>
+      <c r="B838" s="11"/>
+      <c r="H838" s="14"/>
     </row>
     <row r="839">
-      <c r="H839" s="9"/>
+      <c r="B839" s="11"/>
+      <c r="H839" s="14"/>
     </row>
     <row r="840">
-      <c r="H840" s="9"/>
+      <c r="B840" s="11"/>
+      <c r="H840" s="14"/>
     </row>
     <row r="841">
-      <c r="H841" s="9"/>
+      <c r="B841" s="11"/>
+      <c r="H841" s="14"/>
     </row>
     <row r="842">
-      <c r="H842" s="9"/>
+      <c r="B842" s="11"/>
+      <c r="H842" s="14"/>
     </row>
     <row r="843">
-      <c r="H843" s="9"/>
+      <c r="B843" s="11"/>
+      <c r="H843" s="14"/>
     </row>
     <row r="844">
-      <c r="H844" s="9"/>
+      <c r="B844" s="11"/>
+      <c r="H844" s="14"/>
     </row>
     <row r="845">
-      <c r="H845" s="9"/>
+      <c r="B845" s="11"/>
+      <c r="H845" s="14"/>
     </row>
     <row r="846">
-      <c r="H846" s="9"/>
+      <c r="B846" s="11"/>
+      <c r="H846" s="14"/>
     </row>
     <row r="847">
-      <c r="H847" s="9"/>
+      <c r="B847" s="11"/>
+      <c r="H847" s="14"/>
     </row>
     <row r="848">
-      <c r="H848" s="9"/>
+      <c r="B848" s="11"/>
+      <c r="H848" s="14"/>
     </row>
     <row r="849">
-      <c r="H849" s="9"/>
+      <c r="B849" s="11"/>
+      <c r="H849" s="14"/>
     </row>
     <row r="850">
-      <c r="H850" s="9"/>
+      <c r="B850" s="11"/>
+      <c r="H850" s="14"/>
     </row>
     <row r="851">
-      <c r="H851" s="9"/>
+      <c r="B851" s="11"/>
+      <c r="H851" s="14"/>
     </row>
     <row r="852">
-      <c r="H852" s="9"/>
+      <c r="B852" s="11"/>
+      <c r="H852" s="14"/>
     </row>
     <row r="853">
-      <c r="H853" s="9"/>
+      <c r="B853" s="11"/>
+      <c r="H853" s="14"/>
     </row>
     <row r="854">
-      <c r="H854" s="9"/>
+      <c r="B854" s="11"/>
+      <c r="H854" s="14"/>
     </row>
     <row r="855">
-      <c r="H855" s="9"/>
+      <c r="B855" s="11"/>
+      <c r="H855" s="14"/>
     </row>
     <row r="856">
-      <c r="H856" s="9"/>
+      <c r="B856" s="11"/>
+      <c r="H856" s="14"/>
     </row>
     <row r="857">
-      <c r="H857" s="9"/>
+      <c r="B857" s="11"/>
+      <c r="H857" s="14"/>
     </row>
     <row r="858">
-      <c r="H858" s="9"/>
+      <c r="B858" s="11"/>
+      <c r="H858" s="14"/>
     </row>
     <row r="859">
-      <c r="H859" s="9"/>
+      <c r="B859" s="11"/>
+      <c r="H859" s="14"/>
     </row>
     <row r="860">
-      <c r="H860" s="9"/>
+      <c r="B860" s="11"/>
+      <c r="H860" s="14"/>
     </row>
     <row r="861">
-      <c r="H861" s="9"/>
+      <c r="B861" s="11"/>
+      <c r="H861" s="14"/>
     </row>
     <row r="862">
-      <c r="H862" s="9"/>
+      <c r="B862" s="11"/>
+      <c r="H862" s="14"/>
     </row>
     <row r="863">
-      <c r="H863" s="9"/>
+      <c r="B863" s="11"/>
+      <c r="H863" s="14"/>
     </row>
     <row r="864">
-      <c r="H864" s="9"/>
+      <c r="B864" s="11"/>
+      <c r="H864" s="14"/>
     </row>
     <row r="865">
-      <c r="H865" s="9"/>
+      <c r="B865" s="11"/>
+      <c r="H865" s="14"/>
     </row>
     <row r="866">
-      <c r="H866" s="9"/>
+      <c r="B866" s="11"/>
+      <c r="H866" s="14"/>
     </row>
     <row r="867">
-      <c r="H867" s="9"/>
+      <c r="B867" s="11"/>
+      <c r="H867" s="14"/>
     </row>
     <row r="868">
-      <c r="H868" s="9"/>
+      <c r="B868" s="11"/>
+      <c r="H868" s="14"/>
     </row>
     <row r="869">
-      <c r="H869" s="9"/>
+      <c r="B869" s="11"/>
+      <c r="H869" s="14"/>
     </row>
     <row r="870">
-      <c r="H870" s="9"/>
+      <c r="B870" s="11"/>
+      <c r="H870" s="14"/>
     </row>
     <row r="871">
-      <c r="H871" s="9"/>
+      <c r="B871" s="11"/>
+      <c r="H871" s="14"/>
     </row>
     <row r="872">
-      <c r="H872" s="9"/>
+      <c r="B872" s="11"/>
+      <c r="H872" s="14"/>
     </row>
     <row r="873">
-      <c r="H873" s="9"/>
+      <c r="B873" s="11"/>
+      <c r="H873" s="14"/>
     </row>
     <row r="874">
-      <c r="H874" s="9"/>
+      <c r="B874" s="11"/>
+      <c r="H874" s="14"/>
     </row>
     <row r="875">
-      <c r="H875" s="9"/>
+      <c r="B875" s="11"/>
+      <c r="H875" s="14"/>
     </row>
     <row r="876">
-      <c r="H876" s="9"/>
+      <c r="B876" s="11"/>
+      <c r="H876" s="14"/>
     </row>
     <row r="877">
-      <c r="H877" s="9"/>
+      <c r="B877" s="11"/>
+      <c r="H877" s="14"/>
     </row>
     <row r="878">
-      <c r="H878" s="9"/>
+      <c r="B878" s="11"/>
+      <c r="H878" s="14"/>
     </row>
     <row r="879">
-      <c r="H879" s="9"/>
+      <c r="B879" s="11"/>
+      <c r="H879" s="14"/>
     </row>
     <row r="880">
-      <c r="H880" s="9"/>
+      <c r="B880" s="11"/>
+      <c r="H880" s="14"/>
     </row>
     <row r="881">
-      <c r="H881" s="9"/>
+      <c r="B881" s="11"/>
+      <c r="H881" s="14"/>
     </row>
     <row r="882">
-      <c r="H882" s="9"/>
+      <c r="B882" s="11"/>
+      <c r="H882" s="14"/>
     </row>
     <row r="883">
-      <c r="H883" s="9"/>
+      <c r="B883" s="11"/>
+      <c r="H883" s="14"/>
     </row>
     <row r="884">
-      <c r="H884" s="9"/>
+      <c r="B884" s="11"/>
+      <c r="H884" s="14"/>
     </row>
     <row r="885">
-      <c r="H885" s="9"/>
+      <c r="B885" s="11"/>
+      <c r="H885" s="14"/>
     </row>
     <row r="886">
-      <c r="H886" s="9"/>
+      <c r="B886" s="11"/>
+      <c r="H886" s="14"/>
     </row>
     <row r="887">
-      <c r="H887" s="9"/>
+      <c r="B887" s="11"/>
+      <c r="H887" s="14"/>
     </row>
     <row r="888">
-      <c r="H888" s="9"/>
+      <c r="B888" s="11"/>
+      <c r="H888" s="14"/>
     </row>
     <row r="889">
-      <c r="H889" s="9"/>
+      <c r="B889" s="11"/>
+      <c r="H889" s="14"/>
     </row>
     <row r="890">
-      <c r="H890" s="9"/>
+      <c r="B890" s="11"/>
+      <c r="H890" s="14"/>
     </row>
     <row r="891">
-      <c r="H891" s="9"/>
+      <c r="B891" s="11"/>
+      <c r="H891" s="14"/>
     </row>
     <row r="892">
-      <c r="H892" s="9"/>
+      <c r="B892" s="11"/>
+      <c r="H892" s="14"/>
     </row>
     <row r="893">
-      <c r="H893" s="9"/>
+      <c r="B893" s="11"/>
+      <c r="H893" s="14"/>
     </row>
     <row r="894">
-      <c r="H894" s="9"/>
+      <c r="B894" s="11"/>
+      <c r="H894" s="14"/>
     </row>
     <row r="895">
-      <c r="H895" s="9"/>
+      <c r="B895" s="11"/>
+      <c r="H895" s="14"/>
     </row>
     <row r="896">
-      <c r="H896" s="9"/>
+      <c r="B896" s="11"/>
+      <c r="H896" s="14"/>
     </row>
     <row r="897">
-      <c r="H897" s="9"/>
+      <c r="B897" s="11"/>
+      <c r="H897" s="14"/>
     </row>
     <row r="898">
-      <c r="H898" s="9"/>
+      <c r="B898" s="11"/>
+      <c r="H898" s="14"/>
     </row>
     <row r="899">
-      <c r="H899" s="9"/>
+      <c r="B899" s="11"/>
+      <c r="H899" s="14"/>
     </row>
     <row r="900">
-      <c r="H900" s="9"/>
+      <c r="B900" s="11"/>
+      <c r="H900" s="14"/>
     </row>
     <row r="901">
-      <c r="H901" s="9"/>
+      <c r="B901" s="11"/>
+      <c r="H901" s="14"/>
     </row>
     <row r="902">
-      <c r="H902" s="9"/>
+      <c r="B902" s="11"/>
+      <c r="H902" s="14"/>
     </row>
     <row r="903">
-      <c r="H903" s="9"/>
+      <c r="B903" s="11"/>
+      <c r="H903" s="14"/>
     </row>
     <row r="904">
-      <c r="H904" s="9"/>
+      <c r="B904" s="11"/>
+      <c r="H904" s="14"/>
     </row>
     <row r="905">
-      <c r="H905" s="9"/>
+      <c r="B905" s="11"/>
+      <c r="H905" s="14"/>
     </row>
     <row r="906">
-      <c r="H906" s="9"/>
+      <c r="B906" s="11"/>
+      <c r="H906" s="14"/>
     </row>
     <row r="907">
-      <c r="H907" s="9"/>
+      <c r="B907" s="11"/>
+      <c r="H907" s="14"/>
     </row>
     <row r="908">
-      <c r="H908" s="9"/>
+      <c r="B908" s="11"/>
+      <c r="H908" s="14"/>
     </row>
     <row r="909">
-      <c r="H909" s="9"/>
+      <c r="B909" s="11"/>
+      <c r="H909" s="14"/>
     </row>
     <row r="910">
-      <c r="H910" s="9"/>
+      <c r="B910" s="11"/>
+      <c r="H910" s="14"/>
     </row>
     <row r="911">
-      <c r="H911" s="9"/>
+      <c r="B911" s="11"/>
+      <c r="H911" s="14"/>
     </row>
     <row r="912">
-      <c r="H912" s="9"/>
+      <c r="B912" s="11"/>
+      <c r="H912" s="14"/>
     </row>
     <row r="913">
-      <c r="H913" s="9"/>
+      <c r="B913" s="11"/>
+      <c r="H913" s="14"/>
     </row>
     <row r="914">
-      <c r="H914" s="9"/>
+      <c r="B914" s="11"/>
+      <c r="H914" s="14"/>
     </row>
     <row r="915">
-      <c r="H915" s="9"/>
+      <c r="B915" s="11"/>
+      <c r="H915" s="14"/>
     </row>
     <row r="916">
-      <c r="H916" s="9"/>
+      <c r="B916" s="11"/>
+      <c r="H916" s="14"/>
     </row>
     <row r="917">
-      <c r="H917" s="9"/>
+      <c r="B917" s="11"/>
+      <c r="H917" s="14"/>
     </row>
     <row r="918">
-      <c r="H918" s="9"/>
+      <c r="B918" s="11"/>
+      <c r="H918" s="14"/>
     </row>
     <row r="919">
-      <c r="H919" s="9"/>
+      <c r="B919" s="11"/>
+      <c r="H919" s="14"/>
     </row>
     <row r="920">
-      <c r="H920" s="9"/>
+      <c r="B920" s="11"/>
+      <c r="H920" s="14"/>
     </row>
     <row r="921">
-      <c r="H921" s="9"/>
+      <c r="B921" s="11"/>
+      <c r="H921" s="14"/>
     </row>
     <row r="922">
-      <c r="H922" s="9"/>
+      <c r="B922" s="11"/>
+      <c r="H922" s="14"/>
     </row>
     <row r="923">
-      <c r="H923" s="9"/>
+      <c r="B923" s="11"/>
+      <c r="H923" s="14"/>
     </row>
     <row r="924">
-      <c r="H924" s="9"/>
+      <c r="B924" s="11"/>
+      <c r="H924" s="14"/>
     </row>
     <row r="925">
-      <c r="H925" s="9"/>
+      <c r="B925" s="11"/>
+      <c r="H925" s="14"/>
     </row>
     <row r="926">
-      <c r="H926" s="9"/>
+      <c r="B926" s="11"/>
+      <c r="H926" s="14"/>
     </row>
     <row r="927">
-      <c r="H927" s="9"/>
+      <c r="B927" s="11"/>
+      <c r="H927" s="14"/>
     </row>
     <row r="928">
-      <c r="H928" s="9"/>
+      <c r="B928" s="11"/>
+      <c r="H928" s="14"/>
     </row>
     <row r="929">
-      <c r="H929" s="9"/>
+      <c r="B929" s="11"/>
+      <c r="H929" s="14"/>
     </row>
     <row r="930">
-      <c r="H930" s="9"/>
+      <c r="B930" s="11"/>
+      <c r="H930" s="14"/>
     </row>
     <row r="931">
-      <c r="H931" s="9"/>
+      <c r="B931" s="11"/>
+      <c r="H931" s="14"/>
     </row>
     <row r="932">
-      <c r="H932" s="9"/>
+      <c r="B932" s="11"/>
+      <c r="H932" s="14"/>
     </row>
     <row r="933">
-      <c r="H933" s="9"/>
+      <c r="B933" s="11"/>
+      <c r="H933" s="14"/>
     </row>
     <row r="934">
-      <c r="H934" s="9"/>
+      <c r="B934" s="11"/>
+      <c r="H934" s="14"/>
     </row>
     <row r="935">
-      <c r="H935" s="9"/>
+      <c r="B935" s="11"/>
+      <c r="H935" s="14"/>
     </row>
     <row r="936">
-      <c r="H936" s="9"/>
+      <c r="B936" s="11"/>
+      <c r="H936" s="14"/>
     </row>
     <row r="937">
-      <c r="H937" s="9"/>
+      <c r="B937" s="11"/>
+      <c r="H937" s="14"/>
     </row>
     <row r="938">
-      <c r="H938" s="9"/>
+      <c r="B938" s="11"/>
+      <c r="H938" s="14"/>
     </row>
     <row r="939">
-      <c r="H939" s="9"/>
+      <c r="B939" s="11"/>
+      <c r="H939" s="14"/>
     </row>
     <row r="940">
-      <c r="H940" s="9"/>
+      <c r="B940" s="11"/>
+      <c r="H940" s="14"/>
     </row>
     <row r="941">
-      <c r="H941" s="9"/>
+      <c r="B941" s="11"/>
+      <c r="H941" s="14"/>
     </row>
     <row r="942">
-      <c r="H942" s="9"/>
+      <c r="B942" s="11"/>
+      <c r="H942" s="14"/>
     </row>
     <row r="943">
-      <c r="H943" s="9"/>
+      <c r="B943" s="11"/>
+      <c r="H943" s="14"/>
     </row>
     <row r="944">
-      <c r="H944" s="9"/>
+      <c r="B944" s="11"/>
+      <c r="H944" s="14"/>
     </row>
     <row r="945">
-      <c r="H945" s="9"/>
+      <c r="B945" s="11"/>
+      <c r="H945" s="14"/>
     </row>
     <row r="946">
-      <c r="H946" s="9"/>
+      <c r="B946" s="11"/>
+      <c r="H946" s="14"/>
     </row>
     <row r="947">
-      <c r="H947" s="9"/>
+      <c r="B947" s="11"/>
+      <c r="H947" s="14"/>
     </row>
     <row r="948">
-      <c r="H948" s="9"/>
+      <c r="B948" s="11"/>
+      <c r="H948" s="14"/>
     </row>
     <row r="949">
-      <c r="H949" s="9"/>
+      <c r="B949" s="11"/>
+      <c r="H949" s="14"/>
     </row>
     <row r="950">
-      <c r="H950" s="9"/>
+      <c r="B950" s="11"/>
+      <c r="H950" s="14"/>
     </row>
     <row r="951">
-      <c r="H951" s="9"/>
+      <c r="B951" s="11"/>
+      <c r="H951" s="14"/>
     </row>
     <row r="952">
-      <c r="H952" s="9"/>
+      <c r="B952" s="11"/>
+      <c r="H952" s="14"/>
     </row>
     <row r="953">
-      <c r="H953" s="9"/>
+      <c r="B953" s="11"/>
+      <c r="H953" s="14"/>
     </row>
     <row r="954">
-      <c r="H954" s="9"/>
+      <c r="B954" s="11"/>
+      <c r="H954" s="14"/>
     </row>
     <row r="955">
-      <c r="H955" s="9"/>
+      <c r="B955" s="11"/>
+      <c r="H955" s="14"/>
     </row>
     <row r="956">
-      <c r="H956" s="9"/>
+      <c r="B956" s="11"/>
+      <c r="H956" s="14"/>
     </row>
     <row r="957">
-      <c r="H957" s="9"/>
+      <c r="B957" s="11"/>
+      <c r="H957" s="14"/>
     </row>
     <row r="958">
-      <c r="H958" s="9"/>
+      <c r="B958" s="11"/>
+      <c r="H958" s="14"/>
     </row>
     <row r="959">
-      <c r="H959" s="9"/>
+      <c r="B959" s="11"/>
+      <c r="H959" s="14"/>
     </row>
     <row r="960">
-      <c r="H960" s="9"/>
+      <c r="B960" s="11"/>
+      <c r="H960" s="14"/>
     </row>
     <row r="961">
-      <c r="H961" s="9"/>
+      <c r="B961" s="11"/>
+      <c r="H961" s="14"/>
     </row>
     <row r="962">
-      <c r="H962" s="9"/>
+      <c r="B962" s="11"/>
+      <c r="H962" s="14"/>
     </row>
     <row r="963">
-      <c r="H963" s="9"/>
+      <c r="B963" s="11"/>
+      <c r="H963" s="14"/>
     </row>
     <row r="964">
-      <c r="H964" s="9"/>
+      <c r="B964" s="11"/>
+      <c r="H964" s="14"/>
     </row>
     <row r="965">
-      <c r="H965" s="9"/>
+      <c r="B965" s="11"/>
+      <c r="H965" s="14"/>
     </row>
     <row r="966">
-      <c r="H966" s="9"/>
+      <c r="B966" s="11"/>
+      <c r="H966" s="14"/>
     </row>
     <row r="967">
-      <c r="H967" s="9"/>
+      <c r="B967" s="11"/>
+      <c r="H967" s="14"/>
     </row>
     <row r="968">
-      <c r="H968" s="9"/>
+      <c r="B968" s="11"/>
+      <c r="H968" s="14"/>
     </row>
     <row r="969">
-      <c r="H969" s="9"/>
+      <c r="B969" s="11"/>
+      <c r="H969" s="14"/>
     </row>
     <row r="970">
-      <c r="H970" s="9"/>
+      <c r="B970" s="11"/>
+      <c r="H970" s="14"/>
     </row>
     <row r="971">
-      <c r="H971" s="9"/>
+      <c r="B971" s="11"/>
+      <c r="H971" s="14"/>
     </row>
     <row r="972">
-      <c r="H972" s="9"/>
+      <c r="B972" s="11"/>
+      <c r="H972" s="14"/>
     </row>
     <row r="973">
-      <c r="H973" s="9"/>
+      <c r="B973" s="11"/>
+      <c r="H973" s="14"/>
     </row>
     <row r="974">
-      <c r="H974" s="9"/>
+      <c r="B974" s="11"/>
+      <c r="H974" s="14"/>
     </row>
     <row r="975">
-      <c r="H975" s="9"/>
+      <c r="B975" s="11"/>
+      <c r="H975" s="14"/>
     </row>
     <row r="976">
-      <c r="H976" s="9"/>
+      <c r="B976" s="11"/>
+      <c r="H976" s="14"/>
     </row>
     <row r="977">
-      <c r="H977" s="9"/>
+      <c r="B977" s="11"/>
+      <c r="H977" s="14"/>
     </row>
     <row r="978">
-      <c r="H978" s="9"/>
+      <c r="B978" s="11"/>
+      <c r="H978" s="14"/>
     </row>
     <row r="979">
-      <c r="H979" s="9"/>
+      <c r="B979" s="11"/>
+      <c r="H979" s="14"/>
     </row>
     <row r="980">
-      <c r="H980" s="9"/>
+      <c r="B980" s="11"/>
+      <c r="H980" s="14"/>
     </row>
     <row r="981">
-      <c r="H981" s="9"/>
+      <c r="B981" s="11"/>
+      <c r="H981" s="14"/>
     </row>
     <row r="982">
-      <c r="H982" s="9"/>
+      <c r="B982" s="11"/>
+      <c r="H982" s="14"/>
     </row>
     <row r="983">
-      <c r="H983" s="9"/>
+      <c r="B983" s="11"/>
+      <c r="H983" s="14"/>
     </row>
     <row r="984">
-      <c r="H984" s="9"/>
+      <c r="B984" s="11"/>
+      <c r="H984" s="14"/>
     </row>
     <row r="985">
-      <c r="H985" s="9"/>
+      <c r="B985" s="11"/>
+      <c r="H985" s="14"/>
     </row>
     <row r="986">
-      <c r="H986" s="9"/>
+      <c r="B986" s="11"/>
+      <c r="H986" s="14"/>
     </row>
     <row r="987">
-      <c r="H987" s="9"/>
+      <c r="B987" s="11"/>
+      <c r="H987" s="14"/>
     </row>
     <row r="988">
-      <c r="H988" s="9"/>
+      <c r="B988" s="11"/>
+      <c r="H988" s="14"/>
     </row>
     <row r="989">
-      <c r="H989" s="9"/>
+      <c r="B989" s="11"/>
+      <c r="H989" s="14"/>
     </row>
     <row r="990">
-      <c r="H990" s="9"/>
+      <c r="B990" s="11"/>
+      <c r="H990" s="14"/>
     </row>
     <row r="991">
-      <c r="H991" s="9"/>
+      <c r="B991" s="11"/>
+      <c r="H991" s="14"/>
     </row>
     <row r="992">
-      <c r="H992" s="9"/>
+      <c r="B992" s="11"/>
+      <c r="H992" s="14"/>
     </row>
     <row r="993">
-      <c r="H993" s="9"/>
+      <c r="B993" s="11"/>
+      <c r="H993" s="14"/>
     </row>
     <row r="994">
-      <c r="H994" s="9"/>
+      <c r="B994" s="11"/>
+      <c r="H994" s="14"/>
     </row>
     <row r="995">
-      <c r="H995" s="9"/>
+      <c r="B995" s="11"/>
+      <c r="H995" s="14"/>
     </row>
     <row r="996">
-      <c r="H996" s="9"/>
+      <c r="B996" s="11"/>
+      <c r="H996" s="14"/>
     </row>
     <row r="997">
-      <c r="H997" s="9"/>
+      <c r="B997" s="11"/>
+      <c r="H997" s="14"/>
     </row>
     <row r="998">
-      <c r="H998" s="9"/>
+      <c r="B998" s="11"/>
+      <c r="H998" s="14"/>
     </row>
     <row r="999">
-      <c r="H999" s="9"/>
+      <c r="B999" s="11"/>
+      <c r="H999" s="14"/>
     </row>
     <row r="1000">
-      <c r="H1000" s="9"/>
+      <c r="B1000" s="11"/>
+      <c r="H1000" s="14"/>
     </row>
     <row r="1001">
-      <c r="H1001" s="9"/>
+      <c r="B1001" s="11"/>
+      <c r="H1001" s="14"/>
     </row>
     <row r="1002">
-      <c r="H1002" s="9"/>
+      <c r="B1002" s="11"/>
+      <c r="H1002" s="14"/>
     </row>
     <row r="1003">
-      <c r="H1003" s="9"/>
+      <c r="B1003" s="11"/>
+      <c r="H1003" s="14"/>
     </row>
     <row r="1004">
-      <c r="H1004" s="9"/>
+      <c r="B1004" s="11"/>
+      <c r="H1004" s="14"/>
     </row>
     <row r="1005">
-      <c r="H1005" s="9"/>
+      <c r="B1005" s="11"/>
+      <c r="H1005" s="14"/>
     </row>
     <row r="1006">
-      <c r="H1006" s="9"/>
+      <c r="B1006" s="11"/>
+      <c r="H1006" s="14"/>
     </row>
     <row r="1007">
-      <c r="H1007" s="9"/>
+      <c r="B1007" s="11"/>
+      <c r="H1007" s="14"/>
     </row>
     <row r="1008">
-      <c r="H1008" s="9"/>
+      <c r="B1008" s="11"/>
+      <c r="H1008" s="14"/>
     </row>
     <row r="1009">
-      <c r="H1009" s="9"/>
+      <c r="B1009" s="11"/>
+      <c r="H1009" s="14"/>
     </row>
     <row r="1010">
-      <c r="H1010" s="9"/>
+      <c r="B1010" s="11"/>
+      <c r="H1010" s="14"/>
     </row>
     <row r="1011">
-      <c r="H1011" s="9"/>
+      <c r="B1011" s="11"/>
+      <c r="H1011" s="14"/>
     </row>
     <row r="1012">
-      <c r="H1012" s="9"/>
+      <c r="B1012" s="11"/>
+      <c r="H1012" s="14"/>
     </row>
     <row r="1013">
-      <c r="H1013" s="9"/>
+      <c r="B1013" s="11"/>
+      <c r="H1013" s="14"/>
     </row>
     <row r="1014">
-      <c r="H1014" s="9"/>
+      <c r="B1014" s="11"/>
+      <c r="H1014" s="14"/>
     </row>
     <row r="1015">
-      <c r="H1015" s="9"/>
+      <c r="B1015" s="11"/>
+      <c r="H1015" s="14"/>
     </row>
     <row r="1016">
-      <c r="H1016" s="9"/>
+      <c r="B1016" s="11"/>
+      <c r="H1016" s="14"/>
     </row>
     <row r="1017">
-      <c r="H1017" s="9"/>
+      <c r="B1017" s="11"/>
+      <c r="H1017" s="14"/>
+    </row>
+    <row r="1018">
+      <c r="B1018" s="11"/>
+      <c r="H1018" s="14"/>
+    </row>
+    <row r="1019">
+      <c r="B1019" s="11"/>
+      <c r="H1019" s="14"/>
+    </row>
+    <row r="1020">
+      <c r="B1020" s="11"/>
+      <c r="H1020" s="14"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C22:C25"/>
+  </mergeCells>
   <printOptions gridLines="1" horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>